--- a/results/2012_reps_by_priority(0).xlsx
+++ b/results/2012_reps_by_priority(0).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B5156A-C0D1-FB48-9208-CC1CC71D179F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEE6ED3-4018-1143-A7ED-1B91E92588C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1000" windowWidth="26940" windowHeight="16440" xr2:uid="{74D13D65-F591-8A4C-A91D-66E06EFADB04}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_2012_reps_by_priority_0" localSheetId="0">Sheet1!$A$1:$K$168</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{A6473CFB-9DA6-7D4F-9CA9-B5DEE1B85F4E}" name="2012_reps_by_priority(0)" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2012_reps_by_priority(0).csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2012_reps_by_priority(0).csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -58,28 +58,6 @@
     </textPr>
   </connection>
 </connections>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -259,7 +237,7 @@
     <t>NE</t>
   </si>
   <si>
-    <t>VERIFICATION</t>
+    <t>VERIFICATION &gt;&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -649,20 +627,23 @@
   <dimension ref="A1:R168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2:N168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.83203125" customWidth="1"/>
@@ -756,8 +737,8 @@
         <f>IF(F2&gt;E2, "REP", "DEM")</f>
         <v>DEM</v>
       </c>
-      <c r="N2" t="str" cm="1">
-        <f t="array" ref="N2">IF(M2=J2, "GOOD", BAD)</f>
+      <c r="N2" t="str">
+        <f>IF(M2=J2, "GOOD", "BAD")</f>
         <v>GOOD</v>
       </c>
       <c r="P2">
@@ -805,28 +786,28 @@
         <v>12</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M66" si="0">IF(F3&gt;E3, "REP", "DEM")</f>
         <v>DEM</v>
       </c>
-      <c r="N3" t="str" cm="1">
-        <f t="array" ref="N3">IF(M3=J3, "GOOD", BAD)</f>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N66" si="1">IF(M3=J3, "GOOD", "BAD")</f>
         <v>GOOD</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="1">IF(J3="DEM",P2+1, P2)</f>
+        <f t="shared" ref="P3:P66" si="2">IF(J3="DEM",P2+1, P2)</f>
         <v>203</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="2">ROUND(A3*O$1,0)-P3</f>
+        <f t="shared" ref="Q3:Q66" si="3">ROUND(A3*O$1,0)-P3</f>
         <v>19</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R66" si="3">Q3-K3</f>
-        <v>-1</v>
+        <f t="shared" ref="R3:R66" si="4">Q3-K3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -861,28 +842,28 @@
         <v>15</v>
       </c>
       <c r="K4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N4" t="str" cm="1">
-        <f t="array" ref="N4">IF(M4=J4, "GOOD", BAD)</f>
+      <c r="N4" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>203</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="R4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -917,28 +898,28 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N5" t="str" cm="1">
-        <f t="array" ref="N5">IF(M5=J5, "GOOD", BAD)</f>
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>204</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="R5">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -980,20 +961,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N6" t="str" cm="1">
-        <f t="array" ref="N6">IF(M6=J6, "GOOD", BAD)</f>
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>205</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="R6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1029,28 +1010,28 @@
         <v>12</v>
       </c>
       <c r="K7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N7" t="str" cm="1">
-        <f t="array" ref="N7">IF(M7=J7, "GOOD", BAD)</f>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>206</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="R7">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1085,28 +1066,28 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N8" t="str" cm="1">
-        <f t="array" ref="N8">IF(M8=J8, "GOOD", BAD)</f>
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>206</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="R8">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1141,28 +1122,28 @@
         <v>12</v>
       </c>
       <c r="K9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N9" t="str" cm="1">
-        <f t="array" ref="N9">IF(M9=J9, "GOOD", BAD)</f>
+      <c r="N9" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>207</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="R9">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1204,20 +1185,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N10" t="str" cm="1">
-        <f t="array" ref="N10">IF(M10=J10, "GOOD", BAD)</f>
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>208</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="R10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1260,20 +1241,20 @@
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N11" t="str" cm="1">
-        <f t="array" ref="N11">IF(M11=J11, "GOOD", BAD)</f>
+      <c r="N11" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>208</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="R11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1309,28 +1290,28 @@
         <v>15</v>
       </c>
       <c r="K12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N12" t="str" cm="1">
-        <f t="array" ref="N12">IF(M12=J12, "GOOD", BAD)</f>
+      <c r="N12" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>208</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="R12">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1365,28 +1346,28 @@
         <v>12</v>
       </c>
       <c r="K13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N13" t="str" cm="1">
-        <f t="array" ref="N13">IF(M13=J13, "GOOD", BAD)</f>
+      <c r="N13" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="R13">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1421,28 +1402,28 @@
         <v>15</v>
       </c>
       <c r="K14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N14" t="str" cm="1">
-        <f t="array" ref="N14">IF(M14=J14, "GOOD", BAD)</f>
+      <c r="N14" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="R14">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1477,28 +1458,28 @@
         <v>12</v>
       </c>
       <c r="K15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N15" t="str" cm="1">
-        <f t="array" ref="N15">IF(M15=J15, "GOOD", BAD)</f>
+      <c r="N15" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="R15">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1540,20 +1521,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N16" t="str" cm="1">
-        <f t="array" ref="N16">IF(M16=J16, "GOOD", BAD)</f>
+      <c r="N16" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>211</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="R16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1589,28 +1570,28 @@
         <v>12</v>
       </c>
       <c r="K17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N17" t="str" cm="1">
-        <f t="array" ref="N17">IF(M17=J17, "GOOD", BAD)</f>
+      <c r="N17" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>212</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="R17">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -1652,20 +1633,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N18" t="str" cm="1">
-        <f t="array" ref="N18">IF(M18=J18, "GOOD", BAD)</f>
+      <c r="N18" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>213</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="R18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1708,20 +1689,20 @@
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N19" t="str" cm="1">
-        <f t="array" ref="N19">IF(M19=J19, "GOOD", BAD)</f>
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>213</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="R19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1764,20 +1745,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N20" t="str" cm="1">
-        <f t="array" ref="N20">IF(M20=J20, "GOOD", BAD)</f>
+      <c r="N20" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>214</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="R20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1813,28 +1794,28 @@
         <v>12</v>
       </c>
       <c r="K21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N21" t="str" cm="1">
-        <f t="array" ref="N21">IF(M21=J21, "GOOD", BAD)</f>
+      <c r="N21" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>215</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="R21">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -1869,28 +1850,28 @@
         <v>15</v>
       </c>
       <c r="K22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" t="str">
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N22" t="str" cm="1">
-        <f t="array" ref="N22">IF(M22=J22, "GOOD", BAD)</f>
+      <c r="N22" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>215</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="R22">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -1932,20 +1913,20 @@
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N23" t="str" cm="1">
-        <f t="array" ref="N23">IF(M23=J23, "GOOD", BAD)</f>
+      <c r="N23" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>215</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="R23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1981,28 +1962,28 @@
         <v>15</v>
       </c>
       <c r="K24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" t="str">
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N24" t="str" cm="1">
-        <f t="array" ref="N24">IF(M24=J24, "GOOD", BAD)</f>
+      <c r="N24" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>215</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="R24">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -2037,28 +2018,28 @@
         <v>12</v>
       </c>
       <c r="K25">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N25" t="str" cm="1">
-        <f t="array" ref="N25">IF(M25=J25, "GOOD", BAD)</f>
+      <c r="N25" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>216</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="R25">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -2100,20 +2081,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N26" t="str" cm="1">
-        <f t="array" ref="N26">IF(M26=J26, "GOOD", BAD)</f>
+      <c r="N26" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>217</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="R26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2156,20 +2137,20 @@
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N27" t="str" cm="1">
-        <f t="array" ref="N27">IF(M27=J27, "GOOD", BAD)</f>
+      <c r="N27" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>217</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="R27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2212,20 +2193,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N28" t="str" cm="1">
-        <f t="array" ref="N28">IF(M28=J28, "GOOD", BAD)</f>
+      <c r="N28" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>218</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="R28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2261,28 +2242,28 @@
         <v>12</v>
       </c>
       <c r="K29">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N29" t="str" cm="1">
-        <f t="array" ref="N29">IF(M29=J29, "GOOD", BAD)</f>
+      <c r="N29" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>219</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="R29">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -2324,20 +2305,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N30" t="str" cm="1">
-        <f t="array" ref="N30">IF(M30=J30, "GOOD", BAD)</f>
+      <c r="N30" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="R30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2373,28 +2354,28 @@
         <v>12</v>
       </c>
       <c r="K31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N31" t="str" cm="1">
-        <f t="array" ref="N31">IF(M31=J31, "GOOD", BAD)</f>
+      <c r="N31" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>221</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="R31">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -2436,20 +2417,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N32" t="str" cm="1">
-        <f t="array" ref="N32">IF(M32=J32, "GOOD", BAD)</f>
+      <c r="N32" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>222</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="R32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2485,28 +2466,28 @@
         <v>12</v>
       </c>
       <c r="K33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N33" t="str" cm="1">
-        <f t="array" ref="N33">IF(M33=J33, "GOOD", BAD)</f>
+      <c r="N33" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>223</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="R33">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -2548,20 +2529,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N34" t="str" cm="1">
-        <f t="array" ref="N34">IF(M34=J34, "GOOD", BAD)</f>
+      <c r="N34" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>224</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="R34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2604,20 +2585,20 @@
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N35" t="str" cm="1">
-        <f t="array" ref="N35">IF(M35=J35, "GOOD", BAD)</f>
+      <c r="N35" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>224</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="R35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2660,20 +2641,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N36" t="str" cm="1">
-        <f t="array" ref="N36">IF(M36=J36, "GOOD", BAD)</f>
+      <c r="N36" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="R36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2709,28 +2690,28 @@
         <v>15</v>
       </c>
       <c r="K37">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" t="str">
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N37" t="str" cm="1">
-        <f t="array" ref="N37">IF(M37=J37, "GOOD", BAD)</f>
+      <c r="N37" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="R37">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -2772,20 +2753,20 @@
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N38" t="str" cm="1">
-        <f t="array" ref="N38">IF(M38=J38, "GOOD", BAD)</f>
+      <c r="N38" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="R38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2828,20 +2809,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N39" t="str" cm="1">
-        <f t="array" ref="N39">IF(M39=J39, "GOOD", BAD)</f>
+      <c r="N39" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>226</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="R39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2877,28 +2858,28 @@
         <v>12</v>
       </c>
       <c r="K40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N40" t="str" cm="1">
-        <f t="array" ref="N40">IF(M40=J40, "GOOD", BAD)</f>
+      <c r="N40" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>227</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="R40">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -2933,28 +2914,28 @@
         <v>15</v>
       </c>
       <c r="K41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" t="str">
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N41" t="str" cm="1">
-        <f t="array" ref="N41">IF(M41=J41, "GOOD", BAD)</f>
+      <c r="N41" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>227</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="R41">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -2989,28 +2970,28 @@
         <v>12</v>
       </c>
       <c r="K42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N42" t="str" cm="1">
-        <f t="array" ref="N42">IF(M42=J42, "GOOD", BAD)</f>
+      <c r="N42" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>228</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="R42">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -3052,20 +3033,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N43" t="str" cm="1">
-        <f t="array" ref="N43">IF(M43=J43, "GOOD", BAD)</f>
+      <c r="N43" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>229</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="R43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3108,20 +3089,20 @@
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N44" t="str" cm="1">
-        <f t="array" ref="N44">IF(M44=J44, "GOOD", BAD)</f>
+      <c r="N44" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>229</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="R44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3157,28 +3138,28 @@
         <v>15</v>
       </c>
       <c r="K45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" t="str">
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N45" t="str" cm="1">
-        <f t="array" ref="N45">IF(M45=J45, "GOOD", BAD)</f>
+      <c r="N45" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>229</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="R45">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
@@ -3213,28 +3194,28 @@
         <v>12</v>
       </c>
       <c r="K46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N46" t="str" cm="1">
-        <f t="array" ref="N46">IF(M46=J46, "GOOD", BAD)</f>
+      <c r="N46" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="R46">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -3276,20 +3257,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N47" t="str" cm="1">
-        <f t="array" ref="N47">IF(M47=J47, "GOOD", BAD)</f>
+      <c r="N47" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>231</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="R47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3325,28 +3306,28 @@
         <v>12</v>
       </c>
       <c r="K48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N48" t="str" cm="1">
-        <f t="array" ref="N48">IF(M48=J48, "GOOD", BAD)</f>
+      <c r="N48" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>232</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="R48">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
@@ -3388,20 +3369,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N49" t="str" cm="1">
-        <f t="array" ref="N49">IF(M49=J49, "GOOD", BAD)</f>
+      <c r="N49" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>233</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="R49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3437,28 +3418,28 @@
         <v>12</v>
       </c>
       <c r="K50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N50" t="str" cm="1">
-        <f t="array" ref="N50">IF(M50=J50, "GOOD", BAD)</f>
+      <c r="N50" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>234</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="R50">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
@@ -3500,20 +3481,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N51" t="str" cm="1">
-        <f t="array" ref="N51">IF(M51=J51, "GOOD", BAD)</f>
+      <c r="N51" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="R51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3549,28 +3530,28 @@
         <v>12</v>
       </c>
       <c r="K52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N52" t="str" cm="1">
-        <f t="array" ref="N52">IF(M52=J52, "GOOD", BAD)</f>
+      <c r="N52" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>236</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="R52">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
@@ -3605,28 +3586,28 @@
         <v>15</v>
       </c>
       <c r="K53">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" t="str">
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N53" t="str" cm="1">
-        <f t="array" ref="N53">IF(M53=J53, "GOOD", BAD)</f>
+      <c r="N53" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>236</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="R53">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
@@ -3668,20 +3649,20 @@
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N54" t="str" cm="1">
-        <f t="array" ref="N54">IF(M54=J54, "GOOD", BAD)</f>
+      <c r="N54" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>236</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="R54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3717,28 +3698,28 @@
         <v>15</v>
       </c>
       <c r="K55">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" t="str">
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N55" t="str" cm="1">
-        <f t="array" ref="N55">IF(M55=J55, "GOOD", BAD)</f>
+      <c r="N55" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>236</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="R55">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
@@ -3773,28 +3754,28 @@
         <v>12</v>
       </c>
       <c r="K56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N56" t="str" cm="1">
-        <f t="array" ref="N56">IF(M56=J56, "GOOD", BAD)</f>
+      <c r="N56" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>237</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="R56">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
@@ -3836,20 +3817,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N57" t="str" cm="1">
-        <f t="array" ref="N57">IF(M57=J57, "GOOD", BAD)</f>
+      <c r="N57" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>238</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="R57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3892,20 +3873,20 @@
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N58" t="str" cm="1">
-        <f t="array" ref="N58">IF(M58=J58, "GOOD", BAD)</f>
+      <c r="N58" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>238</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="R58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3941,28 +3922,28 @@
         <v>15</v>
       </c>
       <c r="K59">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" t="str">
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N59" t="str" cm="1">
-        <f t="array" ref="N59">IF(M59=J59, "GOOD", BAD)</f>
+      <c r="N59" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>238</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="R59">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
@@ -4004,20 +3985,20 @@
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N60" t="str" cm="1">
-        <f t="array" ref="N60">IF(M60=J60, "GOOD", BAD)</f>
+      <c r="N60" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>238</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="R60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4060,20 +4041,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N61" t="str" cm="1">
-        <f t="array" ref="N61">IF(M61=J61, "GOOD", BAD)</f>
+      <c r="N61" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>239</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="R61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4116,20 +4097,20 @@
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N62" t="str" cm="1">
-        <f t="array" ref="N62">IF(M62=J62, "GOOD", BAD)</f>
+      <c r="N62" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>239</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="R62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4172,20 +4153,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N63" t="str" cm="1">
-        <f t="array" ref="N63">IF(M63=J63, "GOOD", BAD)</f>
+      <c r="N63" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="R63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4221,28 +4202,28 @@
         <v>12</v>
       </c>
       <c r="K64">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N64" t="str" cm="1">
-        <f t="array" ref="N64">IF(M64=J64, "GOOD", BAD)</f>
+      <c r="N64" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>241</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="R64">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
@@ -4284,20 +4265,20 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N65" t="str" cm="1">
-        <f t="array" ref="N65">IF(M65=J65, "GOOD", BAD)</f>
+      <c r="N65" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>242</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="R65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4333,28 +4314,28 @@
         <v>12</v>
       </c>
       <c r="K66">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="N66" t="str" cm="1">
-        <f t="array" ref="N66">IF(M66=J66, "GOOD", BAD)</f>
+      <c r="N66" t="str">
+        <f t="shared" si="1"/>
         <v>GOOD</v>
       </c>
       <c r="P66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>243</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="R66">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
@@ -4393,23 +4374,23 @@
       </c>
       <c r="L67" s="6"/>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M130" si="4">IF(F67&gt;E67, "REP", "DEM")</f>
-        <v>DEM</v>
-      </c>
-      <c r="N67" t="str" cm="1">
-        <f t="array" ref="N67">IF(M67=J67, "GOOD", BAD)</f>
+        <f t="shared" ref="M67:M130" si="5">IF(F67&gt;E67, "REP", "DEM")</f>
+        <v>DEM</v>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" ref="N67:N130" si="6">IF(M67=J67, "GOOD", "BAD")</f>
         <v>GOOD</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P130" si="5">IF(J67="DEM",P66+1, P66)</f>
+        <f t="shared" ref="P67:P130" si="7">IF(J67="DEM",P66+1, P66)</f>
         <v>244</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q130" si="6">ROUND(A67*O$1,0)-P67</f>
+        <f t="shared" ref="Q67:Q130" si="8">ROUND(A67*O$1,0)-P67</f>
         <v>11</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R130" si="7">Q67-K67</f>
+        <f t="shared" ref="R67:R130" si="9">Q67-K67</f>
         <v>0</v>
       </c>
     </row>
@@ -4445,28 +4426,28 @@
         <v>12</v>
       </c>
       <c r="K68">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L68" s="6"/>
       <c r="M68" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N68" t="str" cm="1">
-        <f t="array" ref="N68">IF(M68=J68, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>245</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R68">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
@@ -4505,23 +4486,23 @@
       </c>
       <c r="L69" s="6"/>
       <c r="M69" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N69" t="str" cm="1">
-        <f t="array" ref="N69">IF(M69=J69, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>246</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4561,23 +4542,23 @@
       </c>
       <c r="L70" s="6"/>
       <c r="M70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N70" t="str" cm="1">
-        <f t="array" ref="N70">IF(M70=J70, "GOOD", BAD)</f>
+      <c r="N70" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>246</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4617,23 +4598,23 @@
       </c>
       <c r="L71" s="6"/>
       <c r="M71" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N71" t="str" cm="1">
-        <f t="array" ref="N71">IF(M71=J71, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N71" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>247</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4673,23 +4654,23 @@
       </c>
       <c r="L72" s="6"/>
       <c r="M72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N72" t="str" cm="1">
-        <f t="array" ref="N72">IF(M72=J72, "GOOD", BAD)</f>
+      <c r="N72" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>247</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4725,28 +4706,28 @@
         <v>15</v>
       </c>
       <c r="K73">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L73" s="6"/>
       <c r="M73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N73" t="str" cm="1">
-        <f t="array" ref="N73">IF(M73=J73, "GOOD", BAD)</f>
+      <c r="N73" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>247</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="R73">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
@@ -4781,28 +4762,28 @@
         <v>12</v>
       </c>
       <c r="K74">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N74" t="str" cm="1">
-        <f t="array" ref="N74">IF(M74=J74, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N74" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>248</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R74">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
@@ -4841,23 +4822,23 @@
       </c>
       <c r="L75" s="6"/>
       <c r="M75" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N75" t="str" cm="1">
-        <f t="array" ref="N75">IF(M75=J75, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>249</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4893,28 +4874,28 @@
         <v>12</v>
       </c>
       <c r="K76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L76" s="6"/>
       <c r="M76" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N76" t="str" cm="1">
-        <f t="array" ref="N76">IF(M76=J76, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="R76">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
@@ -4949,28 +4930,28 @@
         <v>15</v>
       </c>
       <c r="K77">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L77" s="6"/>
       <c r="M77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N77" t="str" cm="1">
-        <f t="array" ref="N77">IF(M77=J77, "GOOD", BAD)</f>
+      <c r="N77" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R77">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
@@ -5009,23 +4990,23 @@
       </c>
       <c r="L78" s="6"/>
       <c r="M78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N78" t="str" cm="1">
-        <f t="array" ref="N78">IF(M78=J78, "GOOD", BAD)</f>
+      <c r="N78" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5061,28 +5042,28 @@
         <v>15</v>
       </c>
       <c r="K79">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L79" s="6"/>
       <c r="M79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N79" t="str" cm="1">
-        <f t="array" ref="N79">IF(M79=J79, "GOOD", BAD)</f>
+      <c r="N79" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="R79">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
@@ -5117,28 +5098,28 @@
         <v>12</v>
       </c>
       <c r="K80">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L80" s="6"/>
       <c r="M80" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N80" t="str" cm="1">
-        <f t="array" ref="N80">IF(M80=J80, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>251</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R80">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
@@ -5177,23 +5158,23 @@
       </c>
       <c r="L81" s="6"/>
       <c r="M81" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N81" t="str" cm="1">
-        <f t="array" ref="N81">IF(M81=J81, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N81" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>252</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5229,28 +5210,28 @@
         <v>12</v>
       </c>
       <c r="K82">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L82" s="6"/>
       <c r="M82" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N82" t="str" cm="1">
-        <f t="array" ref="N82">IF(M82=J82, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N82" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>253</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="R82">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
@@ -5285,28 +5266,28 @@
         <v>15</v>
       </c>
       <c r="K83">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L83" s="6"/>
       <c r="M83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N83" t="str" cm="1">
-        <f t="array" ref="N83">IF(M83=J83, "GOOD", BAD)</f>
+      <c r="N83" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>253</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R83">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
@@ -5345,23 +5326,23 @@
       </c>
       <c r="L84" s="6"/>
       <c r="M84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N84" t="str" cm="1">
-        <f t="array" ref="N84">IF(M84=J84, "GOOD", BAD)</f>
+      <c r="N84" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>253</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5397,28 +5378,28 @@
         <v>15</v>
       </c>
       <c r="K85">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L85" s="6"/>
       <c r="M85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N85" t="str" cm="1">
-        <f t="array" ref="N85">IF(M85=J85, "GOOD", BAD)</f>
+      <c r="N85" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>253</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="R85">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
@@ -5457,23 +5438,23 @@
       </c>
       <c r="L86" s="6"/>
       <c r="M86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N86" t="str" cm="1">
-        <f t="array" ref="N86">IF(M86=J86, "GOOD", BAD)</f>
+      <c r="N86" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>253</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="R86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5513,23 +5494,23 @@
       </c>
       <c r="L87" s="6"/>
       <c r="M87" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N87" t="str" cm="1">
-        <f t="array" ref="N87">IF(M87=J87, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N87" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>254</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="R87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5569,23 +5550,23 @@
       </c>
       <c r="L88" s="6"/>
       <c r="M88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N88" t="str" cm="1">
-        <f t="array" ref="N88">IF(M88=J88, "GOOD", BAD)</f>
+      <c r="N88" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>254</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="R88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5621,28 +5602,28 @@
         <v>15</v>
       </c>
       <c r="K89">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L89" s="6"/>
       <c r="M89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N89" t="str" cm="1">
-        <f t="array" ref="N89">IF(M89=J89, "GOOD", BAD)</f>
+      <c r="N89" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>254</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="R89">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
@@ -5681,23 +5662,23 @@
       </c>
       <c r="L90" s="6"/>
       <c r="M90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N90" t="str" cm="1">
-        <f t="array" ref="N90">IF(M90=J90, "GOOD", BAD)</f>
+      <c r="N90" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>254</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="R90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5737,23 +5718,23 @@
       </c>
       <c r="L91" s="6"/>
       <c r="M91" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N91" t="str" cm="1">
-        <f t="array" ref="N91">IF(M91=J91, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N91" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>255</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="R91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5789,28 +5770,28 @@
         <v>12</v>
       </c>
       <c r="K92">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L92" s="6"/>
       <c r="M92" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N92" t="str" cm="1">
-        <f t="array" ref="N92">IF(M92=J92, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N92" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="R92">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
@@ -5849,23 +5830,23 @@
       </c>
       <c r="L93" s="6"/>
       <c r="M93" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N93" t="str" cm="1">
-        <f t="array" ref="N93">IF(M93=J93, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N93" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>257</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="R93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5905,23 +5886,23 @@
       </c>
       <c r="L94" s="6"/>
       <c r="M94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N94" t="str" cm="1">
-        <f t="array" ref="N94">IF(M94=J94, "GOOD", BAD)</f>
+      <c r="N94" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>257</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="R94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5957,28 +5938,28 @@
         <v>15</v>
       </c>
       <c r="K95">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L95" s="6"/>
       <c r="M95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N95" t="str" cm="1">
-        <f t="array" ref="N95">IF(M95=J95, "GOOD", BAD)</f>
+      <c r="N95" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>257</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="R95">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
@@ -6017,23 +5998,23 @@
       </c>
       <c r="L96" s="6"/>
       <c r="M96" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N96" t="str" cm="1">
-        <f t="array" ref="N96">IF(M96=J96, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N96" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>258</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="R96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6069,28 +6050,28 @@
         <v>12</v>
       </c>
       <c r="K97">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L97" s="6"/>
       <c r="M97" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N97" t="str" cm="1">
-        <f t="array" ref="N97">IF(M97=J97, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N97" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>259</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="R97">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
@@ -6129,23 +6110,23 @@
       </c>
       <c r="L98" s="6"/>
       <c r="M98" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N98" t="str" cm="1">
-        <f t="array" ref="N98">IF(M98=J98, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N98" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>260</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="R98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6181,28 +6162,28 @@
         <v>12</v>
       </c>
       <c r="K99">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L99" s="6"/>
       <c r="M99" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N99" t="str" cm="1">
-        <f t="array" ref="N99">IF(M99=J99, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N99" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>261</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R99">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
@@ -6241,23 +6222,23 @@
       </c>
       <c r="L100" s="6"/>
       <c r="M100" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N100" t="str" cm="1">
-        <f t="array" ref="N100">IF(M100=J100, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N100" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>262</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6293,28 +6274,28 @@
         <v>12</v>
       </c>
       <c r="K101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L101" s="6"/>
       <c r="M101" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N101" t="str" cm="1">
-        <f t="array" ref="N101">IF(M101=J101, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N101" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>263</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="R101">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
@@ -6353,23 +6334,23 @@
       </c>
       <c r="L102" s="6"/>
       <c r="M102" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N102" t="str" cm="1">
-        <f t="array" ref="N102">IF(M102=J102, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N102" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>264</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="R102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6409,23 +6390,23 @@
       </c>
       <c r="L103" s="6"/>
       <c r="M103" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N103" t="str" cm="1">
-        <f t="array" ref="N103">IF(M103=J103, "GOOD", BAD)</f>
+      <c r="N103" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>264</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="R103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6465,23 +6446,23 @@
       </c>
       <c r="L104" s="6"/>
       <c r="M104" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N104" t="str" cm="1">
-        <f t="array" ref="N104">IF(M104=J104, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N104" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>265</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="R104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6517,28 +6498,28 @@
         <v>12</v>
       </c>
       <c r="K105">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L105" s="6"/>
       <c r="M105" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N105" t="str" cm="1">
-        <f t="array" ref="N105">IF(M105=J105, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N105" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>266</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="R105">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
@@ -6573,28 +6554,28 @@
         <v>15</v>
       </c>
       <c r="K106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L106" s="6"/>
       <c r="M106" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N106" t="str" cm="1">
-        <f t="array" ref="N106">IF(M106=J106, "GOOD", BAD)</f>
+      <c r="N106" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>266</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="R106">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
@@ -6629,28 +6610,28 @@
         <v>12</v>
       </c>
       <c r="K107">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L107" s="6"/>
       <c r="M107" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N107" t="str" cm="1">
-        <f t="array" ref="N107">IF(M107=J107, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N107" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>267</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="R107">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
@@ -6689,23 +6670,23 @@
       </c>
       <c r="L108" s="6"/>
       <c r="M108" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N108" t="str" cm="1">
-        <f t="array" ref="N108">IF(M108=J108, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N108" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>268</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="R108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6745,23 +6726,23 @@
       </c>
       <c r="L109" s="6"/>
       <c r="M109" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N109" t="str" cm="1">
-        <f t="array" ref="N109">IF(M109=J109, "GOOD", BAD)</f>
+      <c r="N109" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>268</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="R109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6801,23 +6782,23 @@
       </c>
       <c r="L110" s="6"/>
       <c r="M110" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N110" t="str" cm="1">
-        <f t="array" ref="N110">IF(M110=J110, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N110" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>269</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="R110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6853,28 +6834,28 @@
         <v>12</v>
       </c>
       <c r="K111">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L111" s="6"/>
       <c r="M111" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N111" t="str" cm="1">
-        <f t="array" ref="N111">IF(M111=J111, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N111" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R111">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
@@ -6913,23 +6894,23 @@
       </c>
       <c r="L112" s="6"/>
       <c r="M112" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N112" t="str" cm="1">
-        <f t="array" ref="N112">IF(M112=J112, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N112" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>271</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6965,28 +6946,28 @@
         <v>12</v>
       </c>
       <c r="K113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L113" s="6"/>
       <c r="M113" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N113" t="str" cm="1">
-        <f t="array" ref="N113">IF(M113=J113, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N113" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>272</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R113">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
@@ -7025,23 +7006,23 @@
       </c>
       <c r="L114" s="6"/>
       <c r="M114" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N114" t="str" cm="1">
-        <f t="array" ref="N114">IF(M114=J114, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N114" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>273</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7081,23 +7062,23 @@
       </c>
       <c r="L115" s="6"/>
       <c r="M115" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N115" t="str" cm="1">
-        <f t="array" ref="N115">IF(M115=J115, "GOOD", BAD)</f>
+      <c r="N115" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>273</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7137,23 +7118,23 @@
       </c>
       <c r="L116" s="6"/>
       <c r="M116" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N116" t="str" cm="1">
-        <f t="array" ref="N116">IF(M116=J116, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N116" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>274</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7193,23 +7174,23 @@
       </c>
       <c r="L117" s="6"/>
       <c r="M117" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N117" t="str" cm="1">
-        <f t="array" ref="N117">IF(M117=J117, "GOOD", BAD)</f>
+      <c r="N117" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>274</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7249,23 +7230,23 @@
       </c>
       <c r="L118" s="6"/>
       <c r="M118" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N118" t="str" cm="1">
-        <f t="array" ref="N118">IF(M118=J118, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N118" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>275</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7301,28 +7282,28 @@
         <v>12</v>
       </c>
       <c r="K119">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L119" s="6"/>
       <c r="M119" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N119" t="str" cm="1">
-        <f t="array" ref="N119">IF(M119=J119, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N119" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>276</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="R119">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
@@ -7357,28 +7338,28 @@
         <v>15</v>
       </c>
       <c r="K120">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L120" s="6"/>
       <c r="M120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N120" t="str" cm="1">
-        <f t="array" ref="N120">IF(M120=J120, "GOOD", BAD)</f>
+      <c r="N120" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>276</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R120">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
@@ -7417,23 +7398,23 @@
       </c>
       <c r="L121" s="6"/>
       <c r="M121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N121" t="str" cm="1">
-        <f t="array" ref="N121">IF(M121=J121, "GOOD", BAD)</f>
+      <c r="N121" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>276</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7469,28 +7450,28 @@
         <v>15</v>
       </c>
       <c r="K122">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L122" s="6"/>
       <c r="M122" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N122" t="str" cm="1">
-        <f t="array" ref="N122">IF(M122=J122, "GOOD", BAD)</f>
+      <c r="N122" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>276</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R122">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
@@ -7525,28 +7506,28 @@
         <v>12</v>
       </c>
       <c r="K123">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L123" s="6"/>
       <c r="M123" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N123" t="str" cm="1">
-        <f t="array" ref="N123">IF(M123=J123, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N123" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>277</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R123">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
@@ -7585,23 +7566,23 @@
       </c>
       <c r="L124" s="6"/>
       <c r="M124" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N124" t="str" cm="1">
-        <f t="array" ref="N124">IF(M124=J124, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N124" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>278</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7637,28 +7618,28 @@
         <v>12</v>
       </c>
       <c r="K125">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L125" s="6"/>
       <c r="M125" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N125" t="str" cm="1">
-        <f t="array" ref="N125">IF(M125=J125, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N125" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>279</v>
       </c>
       <c r="Q125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="R125">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
@@ -7697,23 +7678,23 @@
       </c>
       <c r="L126" s="6"/>
       <c r="M126" t="str">
-        <f t="shared" si="4"/>
-        <v>DEM</v>
-      </c>
-      <c r="N126" t="str" cm="1">
-        <f t="array" ref="N126">IF(M126=J126, "GOOD", BAD)</f>
+        <f t="shared" si="5"/>
+        <v>DEM</v>
+      </c>
+      <c r="N126" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>280</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="R126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7753,23 +7734,23 @@
       </c>
       <c r="L127" s="6"/>
       <c r="M127" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N127" t="str" cm="1">
-        <f t="array" ref="N127">IF(M127=J127, "GOOD", BAD)</f>
+      <c r="N127" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>280</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="R127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7805,28 +7786,28 @@
         <v>15</v>
       </c>
       <c r="K128">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L128" s="6"/>
       <c r="M128" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N128" t="str" cm="1">
-        <f t="array" ref="N128">IF(M128=J128, "GOOD", BAD)</f>
+      <c r="N128" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>280</v>
       </c>
       <c r="Q128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R128">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
@@ -7865,23 +7846,23 @@
       </c>
       <c r="L129" s="6"/>
       <c r="M129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N129" t="str" cm="1">
-        <f t="array" ref="N129">IF(M129=J129, "GOOD", BAD)</f>
+      <c r="N129" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>280</v>
       </c>
       <c r="Q129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7917,28 +7898,28 @@
         <v>15</v>
       </c>
       <c r="K130">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L130" s="6"/>
       <c r="M130" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REP</v>
       </c>
-      <c r="N130" t="str" cm="1">
-        <f t="array" ref="N130">IF(M130=J130, "GOOD", BAD)</f>
+      <c r="N130" t="str">
+        <f t="shared" si="6"/>
         <v>GOOD</v>
       </c>
       <c r="P130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>280</v>
       </c>
       <c r="Q130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R130">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
@@ -7973,28 +7954,28 @@
         <v>12</v>
       </c>
       <c r="K131">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L131" s="6"/>
       <c r="M131" t="str">
-        <f t="shared" ref="M131:M168" si="8">IF(F131&gt;E131, "REP", "DEM")</f>
-        <v>DEM</v>
-      </c>
-      <c r="N131" t="str" cm="1">
-        <f t="array" ref="N131">IF(M131=J131, "GOOD", BAD)</f>
+        <f t="shared" ref="M131:M168" si="10">IF(F131&gt;E131, "REP", "DEM")</f>
+        <v>DEM</v>
+      </c>
+      <c r="N131" t="str">
+        <f t="shared" ref="N131:N168" si="11">IF(M131=J131, "GOOD", "BAD")</f>
         <v>GOOD</v>
       </c>
       <c r="P131">
-        <f t="shared" ref="P131:P168" si="9">IF(J131="DEM",P130+1, P130)</f>
+        <f t="shared" ref="P131:P168" si="12">IF(J131="DEM",P130+1, P130)</f>
         <v>281</v>
       </c>
       <c r="Q131">
-        <f t="shared" ref="Q131:Q168" si="10">ROUND(A131*O$1,0)-P131</f>
+        <f t="shared" ref="Q131:Q168" si="13">ROUND(A131*O$1,0)-P131</f>
         <v>6</v>
       </c>
       <c r="R131">
-        <f t="shared" ref="R131:R168" si="11">Q131-K131</f>
-        <v>-1</v>
+        <f t="shared" ref="R131:R168" si="14">Q131-K131</f>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
@@ -8029,28 +8010,28 @@
         <v>15</v>
       </c>
       <c r="K132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L132" s="6"/>
       <c r="M132" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>REP</v>
       </c>
-      <c r="N132" t="str" cm="1">
-        <f t="array" ref="N132">IF(M132=J132, "GOOD", BAD)</f>
+      <c r="N132" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>281</v>
       </c>
       <c r="Q132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="R132">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
@@ -8085,28 +8066,28 @@
         <v>12</v>
       </c>
       <c r="K133">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L133" s="6"/>
       <c r="M133" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N133" t="str" cm="1">
-        <f t="array" ref="N133">IF(M133=J133, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N133" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>282</v>
       </c>
       <c r="Q133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="R133">
-        <f t="shared" si="11"/>
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
@@ -8145,23 +8126,23 @@
       </c>
       <c r="L134" s="6"/>
       <c r="M134" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N134" t="str" cm="1">
-        <f t="array" ref="N134">IF(M134=J134, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N134" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>283</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="R134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8201,23 +8182,23 @@
       </c>
       <c r="L135" s="6"/>
       <c r="M135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>REP</v>
       </c>
-      <c r="N135" t="str" cm="1">
-        <f t="array" ref="N135">IF(M135=J135, "GOOD", BAD)</f>
+      <c r="N135" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>283</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="R135">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8257,23 +8238,23 @@
       </c>
       <c r="L136" s="6"/>
       <c r="M136" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N136" t="str" cm="1">
-        <f t="array" ref="N136">IF(M136=J136, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N136" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>284</v>
       </c>
       <c r="Q136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="R136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8313,23 +8294,23 @@
       </c>
       <c r="L137" s="6"/>
       <c r="M137" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>REP</v>
       </c>
-      <c r="N137" t="str" cm="1">
-        <f t="array" ref="N137">IF(M137=J137, "GOOD", BAD)</f>
+      <c r="N137" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>284</v>
       </c>
       <c r="Q137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="R137">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8369,23 +8350,23 @@
       </c>
       <c r="L138" s="6"/>
       <c r="M138" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N138" t="str" cm="1">
-        <f t="array" ref="N138">IF(M138=J138, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N138" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>285</v>
       </c>
       <c r="Q138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="R138">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8421,28 +8402,28 @@
         <v>12</v>
       </c>
       <c r="K139">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L139" s="6"/>
       <c r="M139" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N139" t="str" cm="1">
-        <f t="array" ref="N139">IF(M139=J139, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N139" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>286</v>
       </c>
       <c r="Q139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="R139">
-        <f t="shared" si="11"/>
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
@@ -8481,23 +8462,23 @@
       </c>
       <c r="L140" s="6"/>
       <c r="M140" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N140" t="str" cm="1">
-        <f t="array" ref="N140">IF(M140=J140, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N140" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>287</v>
       </c>
       <c r="Q140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="R140">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8537,23 +8518,23 @@
       </c>
       <c r="L141" s="6"/>
       <c r="M141" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>REP</v>
       </c>
-      <c r="N141" t="str" cm="1">
-        <f t="array" ref="N141">IF(M141=J141, "GOOD", BAD)</f>
+      <c r="N141" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>287</v>
       </c>
       <c r="Q141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="R141">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8593,23 +8574,23 @@
       </c>
       <c r="L142" s="6"/>
       <c r="M142" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N142" t="str" cm="1">
-        <f t="array" ref="N142">IF(M142=J142, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N142" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>288</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="R142">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8649,23 +8630,23 @@
       </c>
       <c r="L143" s="6"/>
       <c r="M143" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>REP</v>
       </c>
-      <c r="N143" t="str" cm="1">
-        <f t="array" ref="N143">IF(M143=J143, "GOOD", BAD)</f>
+      <c r="N143" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>288</v>
       </c>
       <c r="Q143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="R143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8705,23 +8686,23 @@
       </c>
       <c r="L144" s="6"/>
       <c r="M144" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N144" t="str" cm="1">
-        <f t="array" ref="N144">IF(M144=J144, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N144" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>289</v>
       </c>
       <c r="Q144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="R144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8761,23 +8742,23 @@
       </c>
       <c r="L145" s="6"/>
       <c r="M145" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>REP</v>
       </c>
-      <c r="N145" t="str" cm="1">
-        <f t="array" ref="N145">IF(M145=J145, "GOOD", BAD)</f>
+      <c r="N145" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>289</v>
       </c>
       <c r="Q145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="R145">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8817,23 +8798,23 @@
       </c>
       <c r="L146" s="6"/>
       <c r="M146" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N146" t="str" cm="1">
-        <f t="array" ref="N146">IF(M146=J146, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N146" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>290</v>
       </c>
       <c r="Q146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="R146">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8869,28 +8850,28 @@
         <v>12</v>
       </c>
       <c r="K147">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L147" s="6"/>
       <c r="M147" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N147" t="str" cm="1">
-        <f t="array" ref="N147">IF(M147=J147, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N147" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>291</v>
       </c>
       <c r="Q147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="R147">
-        <f t="shared" si="11"/>
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
@@ -8925,28 +8906,28 @@
         <v>15</v>
       </c>
       <c r="K148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L148" s="6"/>
       <c r="M148" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>REP</v>
       </c>
-      <c r="N148" t="str" cm="1">
-        <f t="array" ref="N148">IF(M148=J148, "GOOD", BAD)</f>
+      <c r="N148" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>291</v>
       </c>
       <c r="Q148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="R148">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.2">
@@ -8981,28 +8962,28 @@
         <v>12</v>
       </c>
       <c r="K149">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L149" s="6"/>
       <c r="M149" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N149" t="str" cm="1">
-        <f t="array" ref="N149">IF(M149=J149, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N149" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="Q149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="R149">
-        <f t="shared" si="11"/>
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
@@ -9041,23 +9022,23 @@
       </c>
       <c r="L150" s="6"/>
       <c r="M150" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N150" t="str" cm="1">
-        <f t="array" ref="N150">IF(M150=J150, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N150" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>293</v>
       </c>
       <c r="Q150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="R150">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9097,23 +9078,23 @@
       </c>
       <c r="L151" s="6"/>
       <c r="M151" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>REP</v>
       </c>
-      <c r="N151" t="str" cm="1">
-        <f t="array" ref="N151">IF(M151=J151, "GOOD", BAD)</f>
+      <c r="N151" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>293</v>
       </c>
       <c r="Q151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="R151">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9153,23 +9134,23 @@
       </c>
       <c r="L152" s="6"/>
       <c r="M152" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N152" t="str" cm="1">
-        <f t="array" ref="N152">IF(M152=J152, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N152" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P152">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>294</v>
       </c>
       <c r="Q152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="R152">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9205,28 +9186,28 @@
         <v>12</v>
       </c>
       <c r="K153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L153" s="6"/>
       <c r="M153" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N153" t="str" cm="1">
-        <f t="array" ref="N153">IF(M153=J153, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N153" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P153">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>295</v>
       </c>
       <c r="Q153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="R153">
-        <f t="shared" si="11"/>
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
@@ -9265,23 +9246,23 @@
       </c>
       <c r="L154" s="6"/>
       <c r="M154" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N154" t="str" cm="1">
-        <f t="array" ref="N154">IF(M154=J154, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N154" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P154">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>296</v>
       </c>
       <c r="Q154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="R154">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9321,23 +9302,23 @@
       </c>
       <c r="L155" s="6"/>
       <c r="M155" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N155" t="str" cm="1">
-        <f t="array" ref="N155">IF(M155=J155, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N155" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P155">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>297</v>
       </c>
       <c r="Q155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="R155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9377,23 +9358,23 @@
       </c>
       <c r="L156" s="6"/>
       <c r="M156" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>REP</v>
       </c>
-      <c r="N156" t="str" cm="1">
-        <f t="array" ref="N156">IF(M156=J156, "GOOD", BAD)</f>
+      <c r="N156" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P156">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>297</v>
       </c>
       <c r="Q156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="R156">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9433,23 +9414,23 @@
       </c>
       <c r="L157" s="6"/>
       <c r="M157" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N157" t="str" cm="1">
-        <f t="array" ref="N157">IF(M157=J157, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N157" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P157">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>298</v>
       </c>
       <c r="Q157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="R157">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9489,23 +9470,23 @@
       </c>
       <c r="L158" s="6"/>
       <c r="M158" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>REP</v>
       </c>
-      <c r="N158" t="str" cm="1">
-        <f t="array" ref="N158">IF(M158=J158, "GOOD", BAD)</f>
+      <c r="N158" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>298</v>
       </c>
       <c r="Q158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="R158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9545,23 +9526,23 @@
       </c>
       <c r="L159" s="6"/>
       <c r="M159" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N159" t="str" cm="1">
-        <f t="array" ref="N159">IF(M159=J159, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N159" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P159">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>299</v>
       </c>
       <c r="Q159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="R159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9601,23 +9582,23 @@
       </c>
       <c r="L160" s="6"/>
       <c r="M160" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>REP</v>
       </c>
-      <c r="N160" t="str" cm="1">
-        <f t="array" ref="N160">IF(M160=J160, "GOOD", BAD)</f>
+      <c r="N160" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P160">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>299</v>
       </c>
       <c r="Q160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="R160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9657,23 +9638,23 @@
       </c>
       <c r="L161" s="6"/>
       <c r="M161" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N161" t="str" cm="1">
-        <f t="array" ref="N161">IF(M161=J161, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N161" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P161">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="Q161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="R161">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9709,28 +9690,28 @@
         <v>12</v>
       </c>
       <c r="K162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L162" s="6"/>
       <c r="M162" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N162" t="str" cm="1">
-        <f t="array" ref="N162">IF(M162=J162, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N162" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P162">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>301</v>
       </c>
       <c r="Q162">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="R162">
-        <f t="shared" si="11"/>
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.2">
@@ -9769,23 +9750,23 @@
       </c>
       <c r="L163" s="6"/>
       <c r="M163" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N163" t="str" cm="1">
-        <f t="array" ref="N163">IF(M163=J163, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N163" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>302</v>
       </c>
       <c r="Q163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="R163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9821,28 +9802,28 @@
         <v>12</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L164" s="6"/>
       <c r="M164" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N164" t="str" cm="1">
-        <f t="array" ref="N164">IF(M164=J164, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N164" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>303</v>
       </c>
       <c r="Q164">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="R164">
-        <f t="shared" si="11"/>
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.2">
@@ -9881,23 +9862,23 @@
       </c>
       <c r="L165" s="6"/>
       <c r="M165" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N165" t="str" cm="1">
-        <f t="array" ref="N165">IF(M165=J165, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N165" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>304</v>
       </c>
       <c r="Q165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="R165">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9937,23 +9918,23 @@
       </c>
       <c r="L166" s="6"/>
       <c r="M166" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>REP</v>
       </c>
-      <c r="N166" t="str" cm="1">
-        <f t="array" ref="N166">IF(M166=J166, "GOOD", BAD)</f>
+      <c r="N166" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>304</v>
       </c>
       <c r="Q166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="R166">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9993,23 +9974,23 @@
       </c>
       <c r="L167" s="6"/>
       <c r="M167" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N167" t="str" cm="1">
-        <f t="array" ref="N167">IF(M167=J167, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N167" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>305</v>
       </c>
       <c r="Q167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="R167">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -10045,28 +10026,28 @@
         <v>12</v>
       </c>
       <c r="K168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L168" s="6"/>
       <c r="M168" t="str">
-        <f t="shared" si="8"/>
-        <v>DEM</v>
-      </c>
-      <c r="N168" t="str" cm="1">
-        <f t="array" ref="N168">IF(M168=J168, "GOOD", BAD)</f>
+        <f t="shared" si="10"/>
+        <v>DEM</v>
+      </c>
+      <c r="N168" t="str">
+        <f t="shared" si="11"/>
         <v>GOOD</v>
       </c>
       <c r="P168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>306</v>
       </c>
       <c r="Q168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R168">
-        <f t="shared" si="11"/>
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/2012_reps_by_priority(0).xlsx
+++ b/results/2012_reps_by_priority(0).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEE6ED3-4018-1143-A7ED-1B91E92588C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37630BA-157F-EA46-BDAB-7F7D988CFA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1000" windowWidth="26940" windowHeight="16440" xr2:uid="{74D13D65-F591-8A4C-A91D-66E06EFADB04}"/>
   </bookViews>
@@ -627,16 +627,15 @@
   <dimension ref="A1:R168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B136" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2:N168"/>
+      <selection pane="bottomRight" activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
@@ -718,10 +717,10 @@
         <v>0.30769200000000002</v>
       </c>
       <c r="G2" s="5">
-        <v>0.14285700000000001</v>
+        <v>0.15217700000000001</v>
       </c>
       <c r="H2" s="5">
-        <v>0.214286</v>
+        <v>0.223606</v>
       </c>
       <c r="I2" s="5">
         <v>0.1</v>
@@ -774,10 +773,10 @@
         <v>0.25</v>
       </c>
       <c r="G3" s="5">
-        <v>0.111111</v>
+        <v>0.100075</v>
       </c>
       <c r="H3" s="5">
-        <v>0.222222</v>
+        <v>0.21118600000000001</v>
       </c>
       <c r="I3" s="5">
         <v>0.125</v>
@@ -830,10 +829,10 @@
         <v>0.77777799999999997</v>
       </c>
       <c r="G4" s="5">
-        <v>0.107143</v>
+        <v>0.100193</v>
       </c>
       <c r="H4" s="5">
-        <v>7.1429000000000006E-2</v>
+        <v>6.4478999999999995E-2</v>
       </c>
       <c r="I4" s="5">
         <v>0.1</v>
@@ -886,10 +885,10 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="5">
-        <v>0</v>
+        <v>1.7975000000000001E-2</v>
       </c>
       <c r="H5" s="5">
-        <v>7.6923000000000005E-2</v>
+        <v>9.4897999999999996E-2</v>
       </c>
       <c r="I5" s="5">
         <v>0.1</v>
@@ -942,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>0</v>
+        <v>5.4873999999999999E-2</v>
       </c>
       <c r="H6" s="5">
-        <v>0.5</v>
+        <v>0.44512600000000002</v>
       </c>
       <c r="I6" s="5">
         <v>1</v>
@@ -998,10 +997,10 @@
         <v>0.16666700000000001</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>6.8859000000000004E-2</v>
       </c>
       <c r="H7" s="5">
-        <v>0.14285700000000001</v>
+        <v>0.21171599999999999</v>
       </c>
       <c r="I7" s="5">
         <v>0.16666700000000001</v>
@@ -1054,10 +1053,10 @@
         <v>0.8</v>
       </c>
       <c r="G8" s="5">
-        <v>0.33333299999999999</v>
+        <v>0.25089099999999998</v>
       </c>
       <c r="H8" s="5">
-        <v>0.16666700000000001</v>
+        <v>8.4223999999999993E-2</v>
       </c>
       <c r="I8" s="5">
         <v>0.2</v>
@@ -1110,10 +1109,10 @@
         <v>0.25</v>
       </c>
       <c r="G9" s="5">
-        <v>0.17647099999999999</v>
+        <v>0.18559400000000001</v>
       </c>
       <c r="H9" s="5">
-        <v>0.235294</v>
+        <v>0.244418</v>
       </c>
       <c r="I9" s="5">
         <v>0.1</v>
@@ -1166,10 +1165,10 @@
         <v>0.272727</v>
       </c>
       <c r="G10" s="5">
-        <v>0.16666700000000001</v>
+        <v>0.15706300000000001</v>
       </c>
       <c r="H10" s="5">
-        <v>0.25</v>
+        <v>0.240396</v>
       </c>
       <c r="I10" s="5">
         <v>0.1</v>
@@ -1222,10 +1221,10 @@
         <v>0.71698099999999998</v>
       </c>
       <c r="G11" s="5">
-        <v>0.12963</v>
+        <v>0.13225600000000001</v>
       </c>
       <c r="H11" s="5">
-        <v>0.111111</v>
+        <v>0.113737</v>
       </c>
       <c r="I11" s="5">
         <v>0.1</v>
@@ -1278,10 +1277,10 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="G12" s="5">
-        <v>0.105263</v>
+        <v>0.13009699999999999</v>
       </c>
       <c r="H12" s="5">
-        <v>5.2631999999999998E-2</v>
+        <v>7.7465999999999993E-2</v>
       </c>
       <c r="I12" s="5">
         <v>0.1</v>
@@ -1334,10 +1333,10 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="G13" s="5">
-        <v>8.1081E-2</v>
+        <v>7.2460999999999998E-2</v>
       </c>
       <c r="H13" s="5">
-        <v>0.108108</v>
+        <v>9.9487999999999993E-2</v>
       </c>
       <c r="I13" s="5">
         <v>0.1</v>
@@ -1390,10 +1389,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>0.3</v>
+        <v>0.32650099999999999</v>
       </c>
       <c r="H14" s="5">
-        <v>0.2</v>
+        <v>0.22650100000000001</v>
       </c>
       <c r="I14" s="5">
         <v>0.111111</v>
@@ -1446,10 +1445,10 @@
         <v>0.27777800000000002</v>
       </c>
       <c r="G15" s="5">
-        <v>0.21052599999999999</v>
+        <v>0.19179399999999999</v>
       </c>
       <c r="H15" s="5">
-        <v>0.263158</v>
+        <v>0.244425</v>
       </c>
       <c r="I15" s="5">
         <v>0.1</v>
@@ -1502,10 +1501,10 @@
         <v>0.37036999999999998</v>
       </c>
       <c r="G16" s="5">
-        <v>7.1429000000000006E-2</v>
+        <v>7.7602000000000004E-2</v>
       </c>
       <c r="H16" s="5">
-        <v>0.107143</v>
+        <v>0.113316</v>
       </c>
       <c r="I16" s="5">
         <v>0.1</v>
@@ -1558,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>0.16666700000000001</v>
+        <v>0.157138</v>
       </c>
       <c r="H17" s="5">
-        <v>0.33333299999999999</v>
+        <v>0.32380500000000001</v>
       </c>
       <c r="I17" s="5">
         <v>0.2</v>
@@ -1614,10 +1613,10 @@
         <v>0.222222</v>
       </c>
       <c r="G18" s="5">
-        <v>0.2</v>
+        <v>0.15806300000000001</v>
       </c>
       <c r="H18" s="5">
-        <v>0.3</v>
+        <v>0.25806299999999999</v>
       </c>
       <c r="I18" s="5">
         <v>0.111111</v>
@@ -1670,10 +1669,10 @@
         <v>0.703704</v>
       </c>
       <c r="G19" s="5">
-        <v>0.127273</v>
+        <v>0.11912499999999999</v>
       </c>
       <c r="H19" s="5">
-        <v>0.10909099999999999</v>
+        <v>0.100943</v>
       </c>
       <c r="I19" s="5">
         <v>0.1</v>
@@ -1726,10 +1725,10 @@
         <v>0.35714299999999999</v>
       </c>
       <c r="G20" s="5">
-        <v>0.13333300000000001</v>
+        <v>0.12731500000000001</v>
       </c>
       <c r="H20" s="5">
-        <v>0.2</v>
+        <v>0.19398199999999999</v>
       </c>
       <c r="I20" s="5">
         <v>0.1</v>
@@ -1782,10 +1781,10 @@
         <v>0.5</v>
       </c>
       <c r="G21" s="5">
-        <v>0</v>
+        <v>8.4695000000000006E-2</v>
       </c>
       <c r="H21" s="5">
-        <v>0.2</v>
+        <v>0.115305</v>
       </c>
       <c r="I21" s="5">
         <v>0.25</v>
@@ -1838,10 +1837,10 @@
         <v>0.875</v>
       </c>
       <c r="G22" s="5">
-        <v>0.222222</v>
+        <v>0.23428499999999999</v>
       </c>
       <c r="H22" s="5">
-        <v>0.111111</v>
+        <v>0.12317400000000001</v>
       </c>
       <c r="I22" s="5">
         <v>0.125</v>
@@ -1894,10 +1893,10 @@
         <v>0.75</v>
       </c>
       <c r="G23" s="5">
-        <v>6.8966E-2</v>
+        <v>7.3099999999999998E-2</v>
       </c>
       <c r="H23" s="5">
-        <v>3.4483E-2</v>
+        <v>3.8616999999999999E-2</v>
       </c>
       <c r="I23" s="5">
         <v>0.1</v>
@@ -1950,10 +1949,10 @@
         <v>0.55555600000000005</v>
       </c>
       <c r="G24" s="5">
-        <v>0.1</v>
+        <v>0.141905</v>
       </c>
       <c r="H24" s="5">
-        <v>0</v>
+        <v>4.1904999999999998E-2</v>
       </c>
       <c r="I24" s="5">
         <v>0.111111</v>
@@ -2006,10 +2005,10 @@
         <v>0.42857099999999998</v>
       </c>
       <c r="G25" s="5">
-        <v>0</v>
+        <v>1.356E-3</v>
       </c>
       <c r="H25" s="5">
-        <v>0.125</v>
+        <v>0.123644</v>
       </c>
       <c r="I25" s="5">
         <v>0.14285700000000001</v>
@@ -2062,10 +2061,10 @@
         <v>0.35135100000000002</v>
       </c>
       <c r="G26" s="5">
-        <v>5.2631999999999998E-2</v>
+        <v>5.5391999999999997E-2</v>
       </c>
       <c r="H26" s="5">
-        <v>7.8947000000000003E-2</v>
+        <v>8.1707000000000002E-2</v>
       </c>
       <c r="I26" s="5">
         <v>0.1</v>
@@ -2118,10 +2117,10 @@
         <v>0.690909</v>
       </c>
       <c r="G27" s="5">
-        <v>0.107143</v>
+        <v>0.106462</v>
       </c>
       <c r="H27" s="5">
-        <v>8.9286000000000004E-2</v>
+        <v>8.8605000000000003E-2</v>
       </c>
       <c r="I27" s="5">
         <v>0.1</v>
@@ -2174,10 +2173,10 @@
         <v>0.222222</v>
       </c>
       <c r="G28" s="5">
-        <v>0.1</v>
+        <v>8.9976E-2</v>
       </c>
       <c r="H28" s="5">
-        <v>0.2</v>
+        <v>0.18997600000000001</v>
       </c>
       <c r="I28" s="5">
         <v>0.111111</v>
@@ -2230,10 +2229,10 @@
         <v>0.375</v>
       </c>
       <c r="G29" s="5">
-        <v>0.111111</v>
+        <v>6.3111E-2</v>
       </c>
       <c r="H29" s="5">
-        <v>0.222222</v>
+        <v>0.17422199999999999</v>
       </c>
       <c r="I29" s="5">
         <v>0.125</v>
@@ -2286,10 +2285,10 @@
         <v>0.16666700000000001</v>
       </c>
       <c r="G30" s="5">
-        <v>0.14285700000000001</v>
+        <v>0.114177</v>
       </c>
       <c r="H30" s="5">
-        <v>0.28571400000000002</v>
+        <v>0.25703399999999998</v>
       </c>
       <c r="I30" s="5">
         <v>0.16666700000000001</v>
@@ -2342,10 +2341,10 @@
         <v>0.35714299999999999</v>
       </c>
       <c r="G31" s="5">
-        <v>6.6667000000000004E-2</v>
+        <v>5.0309E-2</v>
       </c>
       <c r="H31" s="5">
-        <v>0.13333300000000001</v>
+        <v>0.116975</v>
       </c>
       <c r="I31" s="5">
         <v>0.1</v>
@@ -2398,10 +2397,10 @@
         <v>0.25</v>
       </c>
       <c r="G32" s="5">
-        <v>0</v>
+        <v>2.1174999999999999E-2</v>
       </c>
       <c r="H32" s="5">
-        <v>0.2</v>
+        <v>0.22117500000000001</v>
       </c>
       <c r="I32" s="5">
         <v>0.25</v>
@@ -2454,10 +2453,10 @@
         <v>0.39285700000000001</v>
       </c>
       <c r="G33" s="5">
-        <v>6.8966E-2</v>
+        <v>5.6666000000000001E-2</v>
       </c>
       <c r="H33" s="5">
-        <v>0.103448</v>
+        <v>9.1148999999999994E-2</v>
       </c>
       <c r="I33" s="5">
         <v>0.1</v>
@@ -2510,10 +2509,10 @@
         <v>0.29411799999999999</v>
       </c>
       <c r="G34" s="5">
-        <v>0.16666700000000001</v>
+        <v>0.14637900000000001</v>
       </c>
       <c r="H34" s="5">
-        <v>0.222222</v>
+        <v>0.201934</v>
       </c>
       <c r="I34" s="5">
         <v>0.1</v>
@@ -2566,10 +2565,10 @@
         <v>0.67857100000000004</v>
       </c>
       <c r="G35" s="5">
-        <v>8.7719000000000005E-2</v>
+        <v>9.4243999999999994E-2</v>
       </c>
       <c r="H35" s="5">
-        <v>7.0175000000000001E-2</v>
+        <v>7.6700000000000004E-2</v>
       </c>
       <c r="I35" s="5">
         <v>0.1</v>
@@ -2622,10 +2621,10 @@
         <v>0.35714299999999999</v>
       </c>
       <c r="G36" s="5">
-        <v>0.13333300000000001</v>
+        <v>0.10932</v>
       </c>
       <c r="H36" s="5">
-        <v>0.2</v>
+        <v>0.175987</v>
       </c>
       <c r="I36" s="5">
         <v>0.1</v>
@@ -2678,10 +2677,10 @@
         <v>0.631579</v>
       </c>
       <c r="G37" s="5">
-        <v>0.1</v>
+        <v>9.5887E-2</v>
       </c>
       <c r="H37" s="5">
-        <v>0.05</v>
+        <v>4.5886999999999997E-2</v>
       </c>
       <c r="I37" s="5">
         <v>0.1</v>
@@ -2734,10 +2733,10 @@
         <v>0.72413799999999995</v>
       </c>
       <c r="G38" s="5">
-        <v>3.3333000000000002E-2</v>
+        <v>4.7812E-2</v>
       </c>
       <c r="H38" s="5">
-        <v>0</v>
+        <v>1.4479000000000001E-2</v>
       </c>
       <c r="I38" s="5">
         <v>0.1</v>
@@ -2790,10 +2789,10 @@
         <v>0.368421</v>
       </c>
       <c r="G39" s="5">
-        <v>5.1282000000000001E-2</v>
+        <v>3.9197000000000003E-2</v>
       </c>
       <c r="H39" s="5">
-        <v>7.6923000000000005E-2</v>
+        <v>6.4838000000000007E-2</v>
       </c>
       <c r="I39" s="5">
         <v>0.1</v>
@@ -2846,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="5">
-        <v>0.2</v>
+        <v>0.17630199999999999</v>
       </c>
       <c r="H40" s="5">
-        <v>0.4</v>
+        <v>0.37630200000000003</v>
       </c>
       <c r="I40" s="5">
         <v>0.25</v>
@@ -2902,10 +2901,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="5">
-        <v>0.33333299999999999</v>
+        <v>0.35679100000000002</v>
       </c>
       <c r="H41" s="5">
-        <v>0.16666700000000001</v>
+        <v>0.19012399999999999</v>
       </c>
       <c r="I41" s="5">
         <v>0.2</v>
@@ -2958,10 +2957,10 @@
         <v>0.31578899999999999</v>
       </c>
       <c r="G42" s="5">
-        <v>0.15</v>
+        <v>0.157583</v>
       </c>
       <c r="H42" s="5">
-        <v>0.2</v>
+        <v>0.20758299999999999</v>
       </c>
       <c r="I42" s="5">
         <v>0.1</v>
@@ -3014,10 +3013,10 @@
         <v>0.538462</v>
       </c>
       <c r="G43" s="5">
-        <v>0</v>
+        <v>1.4992E-2</v>
       </c>
       <c r="H43" s="5">
-        <v>7.1429000000000006E-2</v>
+        <v>5.6437000000000001E-2</v>
       </c>
       <c r="I43" s="5">
         <v>0.1</v>
@@ -3070,10 +3069,10 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="G44" s="5">
-        <v>8.6207000000000006E-2</v>
+        <v>8.2447999999999994E-2</v>
       </c>
       <c r="H44" s="5">
-        <v>6.8966E-2</v>
+        <v>6.5206E-2</v>
       </c>
       <c r="I44" s="5">
         <v>0.1</v>
@@ -3126,10 +3125,10 @@
         <v>0.6</v>
       </c>
       <c r="G45" s="5">
-        <v>9.0909000000000004E-2</v>
+        <v>9.1925000000000007E-2</v>
       </c>
       <c r="H45" s="5">
-        <v>0</v>
+        <v>1.016E-3</v>
       </c>
       <c r="I45" s="5">
         <v>0.1</v>
@@ -3182,10 +3181,10 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="G46" s="5">
-        <v>7.6923000000000005E-2</v>
+        <v>0.105781</v>
       </c>
       <c r="H46" s="5">
-        <v>0.15384600000000001</v>
+        <v>0.18270400000000001</v>
       </c>
       <c r="I46" s="5">
         <v>0.1</v>
@@ -3238,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="5">
-        <v>0</v>
+        <v>5.3E-3</v>
       </c>
       <c r="H47" s="5">
-        <v>0.33333299999999999</v>
+        <v>0.33863300000000002</v>
       </c>
       <c r="I47" s="5">
         <v>0.5</v>
@@ -3294,10 +3293,10 @@
         <v>0.14285700000000001</v>
       </c>
       <c r="G48" s="5">
-        <v>0.125</v>
+        <v>0.136292</v>
       </c>
       <c r="H48" s="5">
-        <v>0.25</v>
+        <v>0.26129200000000002</v>
       </c>
       <c r="I48" s="5">
         <v>0.14285700000000001</v>
@@ -3350,10 +3349,10 @@
         <v>0.41379300000000002</v>
       </c>
       <c r="G49" s="5">
-        <v>3.3333000000000002E-2</v>
+        <v>3.7125999999999999E-2</v>
       </c>
       <c r="H49" s="5">
-        <v>6.6667000000000004E-2</v>
+        <v>7.0458999999999994E-2</v>
       </c>
       <c r="I49" s="5">
         <v>0.1</v>
@@ -3406,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="5">
-        <v>0.2</v>
+        <v>0.13825299999999999</v>
       </c>
       <c r="H50" s="5">
-        <v>0.4</v>
+        <v>0.33825300000000003</v>
       </c>
       <c r="I50" s="5">
         <v>0.25</v>
@@ -3462,10 +3461,10 @@
         <v>0.4</v>
       </c>
       <c r="G51" s="5">
-        <v>6.25E-2</v>
+        <v>8.9815000000000006E-2</v>
       </c>
       <c r="H51" s="5">
-        <v>0.125</v>
+        <v>0.15231500000000001</v>
       </c>
       <c r="I51" s="5">
         <v>0.1</v>
@@ -3518,10 +3517,10 @@
         <v>0.38461499999999998</v>
       </c>
       <c r="G52" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>2.3813000000000001E-2</v>
       </c>
       <c r="H52" s="5">
-        <v>0.05</v>
+        <v>4.8813000000000002E-2</v>
       </c>
       <c r="I52" s="5">
         <v>0.1</v>
@@ -3574,10 +3573,10 @@
         <v>0.65517199999999998</v>
       </c>
       <c r="G53" s="5">
-        <v>6.7796999999999996E-2</v>
+        <v>7.1051000000000003E-2</v>
       </c>
       <c r="H53" s="5">
-        <v>5.0847000000000003E-2</v>
+        <v>5.4101999999999997E-2</v>
       </c>
       <c r="I53" s="5">
         <v>0.1</v>
@@ -3630,10 +3629,10 @@
         <v>1</v>
       </c>
       <c r="G54" s="5">
-        <v>0.5</v>
+        <v>0.34174500000000002</v>
       </c>
       <c r="H54" s="5">
-        <v>0</v>
+        <v>0.15825500000000001</v>
       </c>
       <c r="I54" s="5">
         <v>1</v>
@@ -3686,10 +3685,10 @@
         <v>0.7</v>
       </c>
       <c r="G55" s="5">
-        <v>3.2258000000000002E-2</v>
+        <v>2.4156E-2</v>
       </c>
       <c r="H55" s="5">
-        <v>0</v>
+        <v>8.1019999999999998E-3</v>
       </c>
       <c r="I55" s="5">
         <v>0.1</v>
@@ -3742,10 +3741,10 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="G56" s="5">
-        <v>0</v>
+        <v>3.3408E-2</v>
       </c>
       <c r="H56" s="5">
-        <v>0.1</v>
+        <v>0.133408</v>
       </c>
       <c r="I56" s="5">
         <v>0.111111</v>
@@ -3798,10 +3797,10 @@
         <v>0.4</v>
       </c>
       <c r="G57" s="5">
-        <v>0</v>
+        <v>1.2808999999999999E-2</v>
       </c>
       <c r="H57" s="5">
-        <v>6.25E-2</v>
+        <v>7.5309000000000001E-2</v>
       </c>
       <c r="I57" s="5">
         <v>0.1</v>
@@ -3854,10 +3853,10 @@
         <v>0.6</v>
       </c>
       <c r="G58" s="5">
-        <v>4.7619000000000002E-2</v>
+        <v>6.4935000000000007E-2</v>
       </c>
       <c r="H58" s="5">
-        <v>0</v>
+        <v>1.7315000000000001E-2</v>
       </c>
       <c r="I58" s="5">
         <v>0.1</v>
@@ -3910,10 +3909,10 @@
         <v>0.64406799999999997</v>
       </c>
       <c r="G59" s="5">
-        <v>6.6667000000000004E-2</v>
+        <v>6.0033999999999997E-2</v>
       </c>
       <c r="H59" s="5">
-        <v>0.05</v>
+        <v>4.3367000000000003E-2</v>
       </c>
       <c r="I59" s="5">
         <v>0.1</v>
@@ -3966,10 +3965,10 @@
         <v>0.625</v>
       </c>
       <c r="G60" s="5">
-        <v>0.111111</v>
+        <v>0.103418</v>
       </c>
       <c r="H60" s="5">
-        <v>0</v>
+        <v>7.6930000000000002E-3</v>
       </c>
       <c r="I60" s="5">
         <v>0.125</v>
@@ -4022,10 +4021,10 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="G61" s="5">
-        <v>0.105263</v>
+        <v>0.111291</v>
       </c>
       <c r="H61" s="5">
-        <v>0.15789500000000001</v>
+        <v>0.16392200000000001</v>
       </c>
       <c r="I61" s="5">
         <v>0.1</v>
@@ -4078,10 +4077,10 @@
         <v>0.9</v>
       </c>
       <c r="G62" s="5">
-        <v>0.272727</v>
+        <v>0.235592</v>
       </c>
       <c r="H62" s="5">
-        <v>0.18181800000000001</v>
+        <v>0.14468300000000001</v>
       </c>
       <c r="I62" s="5">
         <v>0.1</v>
@@ -4134,10 +4133,10 @@
         <v>0.4</v>
       </c>
       <c r="G63" s="5">
-        <v>0</v>
+        <v>9.1789999999999997E-3</v>
       </c>
       <c r="H63" s="5">
-        <v>2.4389999999999998E-2</v>
+        <v>3.3569000000000002E-2</v>
       </c>
       <c r="I63" s="5">
         <v>0.1</v>
@@ -4190,10 +4189,10 @@
         <v>0.35</v>
       </c>
       <c r="G64" s="5">
-        <v>0.14285700000000001</v>
+        <v>0.12663099999999999</v>
       </c>
       <c r="H64" s="5">
-        <v>0.19047600000000001</v>
+        <v>0.17424999999999999</v>
       </c>
       <c r="I64" s="5">
         <v>0.1</v>
@@ -4246,10 +4245,10 @@
         <v>0.14285700000000001</v>
       </c>
       <c r="G65" s="5">
-        <v>0.125</v>
+        <v>0.166161</v>
       </c>
       <c r="H65" s="5">
-        <v>0.25</v>
+        <v>0.291161</v>
       </c>
       <c r="I65" s="5">
         <v>0.14285700000000001</v>
@@ -4302,10 +4301,10 @@
         <v>0.3</v>
       </c>
       <c r="G66" s="5">
-        <v>9.0909000000000004E-2</v>
+        <v>9.4426999999999997E-2</v>
       </c>
       <c r="H66" s="5">
-        <v>0.18181800000000001</v>
+        <v>0.185336</v>
       </c>
       <c r="I66" s="5">
         <v>0.1</v>
@@ -4358,10 +4357,10 @@
         <v>0.43333300000000002</v>
       </c>
       <c r="G67" s="5">
-        <v>3.2258000000000002E-2</v>
+        <v>1.8846000000000002E-2</v>
       </c>
       <c r="H67" s="5">
-        <v>6.4516000000000004E-2</v>
+        <v>5.1103999999999997E-2</v>
       </c>
       <c r="I67" s="5">
         <v>0.1</v>
@@ -4414,10 +4413,10 @@
         <v>0.25</v>
       </c>
       <c r="G68" s="5">
-        <v>0</v>
+        <v>6.6410999999999998E-2</v>
       </c>
       <c r="H68" s="5">
-        <v>0.2</v>
+        <v>0.13358900000000001</v>
       </c>
       <c r="I68" s="5">
         <v>0.25</v>
@@ -4470,10 +4469,10 @@
         <v>0.4</v>
       </c>
       <c r="G69" s="5">
-        <v>6.25E-2</v>
+        <v>7.1819999999999995E-2</v>
       </c>
       <c r="H69" s="5">
-        <v>0.125</v>
+        <v>0.13431999999999999</v>
       </c>
       <c r="I69" s="5">
         <v>0.1</v>
@@ -4526,10 +4525,10 @@
         <v>0.63333300000000003</v>
       </c>
       <c r="G70" s="5">
-        <v>4.9180000000000001E-2</v>
+        <v>4.9377999999999998E-2</v>
       </c>
       <c r="H70" s="5">
-        <v>3.2786999999999997E-2</v>
+        <v>3.2985E-2</v>
       </c>
       <c r="I70" s="5">
         <v>0.1</v>
@@ -4582,10 +4581,10 @@
         <v>0.67741899999999999</v>
       </c>
       <c r="G71" s="5">
-        <v>0</v>
+        <v>1.9789999999999999E-3</v>
       </c>
       <c r="H71" s="5">
-        <v>3.125E-2</v>
+        <v>2.9270999999999998E-2</v>
       </c>
       <c r="I71" s="5">
         <v>0.1</v>
@@ -4638,10 +4637,10 @@
         <v>0.5</v>
       </c>
       <c r="G72" s="5">
-        <v>9.0909000000000004E-2</v>
+        <v>8.7359999999999993E-2</v>
       </c>
       <c r="H72" s="5">
-        <v>0</v>
+        <v>3.5500000000000002E-3</v>
       </c>
       <c r="I72" s="5">
         <v>0.1</v>
@@ -4694,10 +4693,10 @@
         <v>0.77777799999999997</v>
       </c>
       <c r="G73" s="5">
-        <v>0.1</v>
+        <v>0.145396</v>
       </c>
       <c r="H73" s="5">
-        <v>0</v>
+        <v>4.5395999999999999E-2</v>
       </c>
       <c r="I73" s="5">
         <v>0.111111</v>
@@ -4750,10 +4749,10 @@
         <v>0.414634</v>
       </c>
       <c r="G74" s="5">
-        <v>0</v>
+        <v>4.7590000000000002E-3</v>
       </c>
       <c r="H74" s="5">
-        <v>2.3810000000000001E-2</v>
+        <v>1.9050999999999998E-2</v>
       </c>
       <c r="I74" s="5">
         <v>0.1</v>
@@ -4806,10 +4805,10 @@
         <v>0.28571400000000002</v>
       </c>
       <c r="G75" s="5">
-        <v>0</v>
+        <v>2.0426E-2</v>
       </c>
       <c r="H75" s="5">
-        <v>0.125</v>
+        <v>0.104574</v>
       </c>
       <c r="I75" s="5">
         <v>0.14285700000000001</v>
@@ -4862,10 +4861,10 @@
         <v>0.3</v>
       </c>
       <c r="G76" s="5">
-        <v>0</v>
+        <v>2.6339999999999999E-2</v>
       </c>
       <c r="H76" s="5">
-        <v>9.0909000000000004E-2</v>
+        <v>0.11724900000000001</v>
       </c>
       <c r="I76" s="5">
         <v>0.1</v>
@@ -4918,10 +4917,10 @@
         <v>0.57142899999999996</v>
       </c>
       <c r="G77" s="5">
-        <v>6.6667000000000004E-2</v>
+        <v>4.3562999999999998E-2</v>
       </c>
       <c r="H77" s="5">
-        <v>0</v>
+        <v>2.3104E-2</v>
       </c>
       <c r="I77" s="5">
         <v>0.1</v>
@@ -4974,10 +4973,10 @@
         <v>0.62295100000000003</v>
       </c>
       <c r="G78" s="5">
-        <v>3.2258000000000002E-2</v>
+        <v>3.9065999999999997E-2</v>
       </c>
       <c r="H78" s="5">
-        <v>1.6129000000000001E-2</v>
+        <v>2.2936999999999999E-2</v>
       </c>
       <c r="I78" s="5">
         <v>0.1</v>
@@ -5030,10 +5029,10 @@
         <v>0.5</v>
       </c>
       <c r="G79" s="5">
-        <v>0.2</v>
+        <v>0.102157</v>
       </c>
       <c r="H79" s="5">
-        <v>0</v>
+        <v>9.7842999999999999E-2</v>
       </c>
       <c r="I79" s="5">
         <v>0.25</v>
@@ -5086,10 +5085,10 @@
         <v>0.4375</v>
       </c>
       <c r="G80" s="5">
-        <v>5.8824000000000001E-2</v>
+        <v>5.6727E-2</v>
       </c>
       <c r="H80" s="5">
-        <v>0.117647</v>
+        <v>0.11555</v>
       </c>
       <c r="I80" s="5">
         <v>0.1</v>
@@ -5142,10 +5141,10 @@
         <v>0.44444400000000001</v>
       </c>
       <c r="G81" s="5">
-        <v>0</v>
+        <v>7.5550000000000001E-3</v>
       </c>
       <c r="H81" s="5">
-        <v>0.1</v>
+        <v>0.107555</v>
       </c>
       <c r="I81" s="5">
         <v>0.111111</v>
@@ -5198,10 +5197,10 @@
         <v>0.45161299999999999</v>
       </c>
       <c r="G82" s="5">
-        <v>0</v>
+        <v>1.709E-3</v>
       </c>
       <c r="H82" s="5">
-        <v>3.125E-2</v>
+        <v>3.2959000000000002E-2</v>
       </c>
       <c r="I82" s="5">
         <v>0.1</v>
@@ -5254,10 +5253,10 @@
         <v>0.57142899999999996</v>
       </c>
       <c r="G83" s="5">
-        <v>4.5455000000000002E-2</v>
+        <v>3.6796000000000002E-2</v>
       </c>
       <c r="H83" s="5">
-        <v>0</v>
+        <v>8.659E-3</v>
       </c>
       <c r="I83" s="5">
         <v>0.1</v>
@@ -5310,10 +5309,10 @@
         <v>0.6875</v>
       </c>
       <c r="G84" s="5">
-        <v>0</v>
+        <v>1.1449000000000001E-2</v>
       </c>
       <c r="H84" s="5">
-        <v>3.0303E-2</v>
+        <v>1.8853999999999999E-2</v>
       </c>
       <c r="I84" s="5">
         <v>0.1</v>
@@ -5366,10 +5365,10 @@
         <v>0.61290299999999998</v>
       </c>
       <c r="G85" s="5">
-        <v>3.1746000000000003E-2</v>
+        <v>2.9080999999999999E-2</v>
       </c>
       <c r="H85" s="5">
-        <v>1.5873000000000002E-2</v>
+        <v>1.3207999999999999E-2</v>
       </c>
       <c r="I85" s="5">
         <v>0.1</v>
@@ -5422,10 +5421,10 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="G86" s="5">
-        <v>0.25</v>
+        <v>0.19844899999999999</v>
       </c>
       <c r="H86" s="5">
-        <v>0</v>
+        <v>5.1551E-2</v>
       </c>
       <c r="I86" s="5">
         <v>0.33333299999999999</v>
@@ -5478,10 +5477,10 @@
         <v>0.38461499999999998</v>
       </c>
       <c r="G87" s="5">
-        <v>7.1429000000000006E-2</v>
+        <v>6.1824999999999998E-2</v>
       </c>
       <c r="H87" s="5">
-        <v>0.14285700000000001</v>
+        <v>0.13325400000000001</v>
       </c>
       <c r="I87" s="5">
         <v>0.1</v>
@@ -5534,10 +5533,10 @@
         <v>0.42857099999999998</v>
       </c>
       <c r="G88" s="5">
-        <v>2.3255999999999999E-2</v>
+        <v>1.8048000000000002E-2</v>
       </c>
       <c r="H88" s="5">
-        <v>0</v>
+        <v>5.208E-3</v>
       </c>
       <c r="I88" s="5">
         <v>0.1</v>
@@ -5590,10 +5589,10 @@
         <v>0.5</v>
       </c>
       <c r="G89" s="5">
-        <v>0.111111</v>
+        <v>5.6911000000000003E-2</v>
       </c>
       <c r="H89" s="5">
-        <v>0</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="I89" s="5">
         <v>0.125</v>
@@ -5646,10 +5645,10 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="G90" s="5">
-        <v>0.14285700000000001</v>
+        <v>0.13184299999999999</v>
       </c>
       <c r="H90" s="5">
-        <v>0</v>
+        <v>1.1013999999999999E-2</v>
       </c>
       <c r="I90" s="5">
         <v>0.16666700000000001</v>
@@ -5702,10 +5701,10 @@
         <v>0.368421</v>
       </c>
       <c r="G91" s="5">
-        <v>0.1</v>
+        <v>7.9712000000000005E-2</v>
       </c>
       <c r="H91" s="5">
-        <v>0.15</v>
+        <v>0.12971199999999999</v>
       </c>
       <c r="I91" s="5">
         <v>0.1</v>
@@ -5758,10 +5757,10 @@
         <v>0.38095200000000001</v>
       </c>
       <c r="G92" s="5">
-        <v>9.0909000000000004E-2</v>
+        <v>9.8491999999999996E-2</v>
       </c>
       <c r="H92" s="5">
-        <v>0.13636400000000001</v>
+        <v>0.14394699999999999</v>
       </c>
       <c r="I92" s="5">
         <v>0.1</v>
@@ -5814,10 +5813,10 @@
         <v>0.4375</v>
       </c>
       <c r="G93" s="5">
-        <v>0</v>
+        <v>2.0279999999999999E-2</v>
       </c>
       <c r="H93" s="5">
-        <v>5.8824000000000001E-2</v>
+        <v>3.8544000000000002E-2</v>
       </c>
       <c r="I93" s="5">
         <v>0.1</v>
@@ -5870,10 +5869,10 @@
         <v>0.60317500000000002</v>
       </c>
       <c r="G94" s="5">
-        <v>1.5625E-2</v>
+        <v>1.9408999999999999E-2</v>
       </c>
       <c r="H94" s="5">
-        <v>0</v>
+        <v>3.784E-3</v>
       </c>
       <c r="I94" s="5">
         <v>0.1</v>
@@ -5926,10 +5925,10 @@
         <v>0.54545500000000002</v>
       </c>
       <c r="G95" s="5">
-        <v>0</v>
+        <v>3.8894999999999999E-2</v>
       </c>
       <c r="H95" s="5">
-        <v>8.3333000000000004E-2</v>
+        <v>4.4437999999999998E-2</v>
       </c>
       <c r="I95" s="5">
         <v>0.1</v>
@@ -5982,10 +5981,10 @@
         <v>0.46875</v>
       </c>
       <c r="G96" s="5">
-        <v>0</v>
+        <v>1.439E-2</v>
       </c>
       <c r="H96" s="5">
-        <v>3.0303E-2</v>
+        <v>1.5913E-2</v>
       </c>
       <c r="I96" s="5">
         <v>0.1</v>
@@ -6038,10 +6037,10 @@
         <v>0.28571400000000002</v>
       </c>
       <c r="G97" s="5">
-        <v>0</v>
+        <v>2.4891E-2</v>
       </c>
       <c r="H97" s="5">
-        <v>0.125</v>
+        <v>0.149891</v>
       </c>
       <c r="I97" s="5">
         <v>0.14285700000000001</v>
@@ -6094,10 +6093,10 @@
         <v>0.16666700000000001</v>
       </c>
       <c r="G98" s="5">
-        <v>0</v>
+        <v>3.8089999999999999E-2</v>
       </c>
       <c r="H98" s="5">
-        <v>0.14285700000000001</v>
+        <v>0.180948</v>
       </c>
       <c r="I98" s="5">
         <v>0.16666700000000001</v>
@@ -6150,10 +6149,10 @@
         <v>0.418605</v>
       </c>
       <c r="G99" s="5">
-        <v>0</v>
+        <v>8.0059999999999992E-3</v>
       </c>
       <c r="H99" s="5">
-        <v>2.2727000000000001E-2</v>
+        <v>1.4722000000000001E-2</v>
       </c>
       <c r="I99" s="5">
         <v>0.1</v>
@@ -6206,10 +6205,10 @@
         <v>0.4375</v>
       </c>
       <c r="G100" s="5">
-        <v>5.8824000000000001E-2</v>
+        <v>3.8732000000000003E-2</v>
       </c>
       <c r="H100" s="5">
-        <v>0.117647</v>
+        <v>9.7556000000000004E-2</v>
       </c>
       <c r="I100" s="5">
         <v>0.1</v>
@@ -6262,10 +6261,10 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="G101" s="5">
-        <v>0</v>
+        <v>9.0500000000000008E-3</v>
       </c>
       <c r="H101" s="5">
-        <v>2.9412000000000001E-2</v>
+        <v>3.8462000000000003E-2</v>
       </c>
       <c r="I101" s="5">
         <v>0.1</v>
@@ -6318,10 +6317,10 @@
         <v>0</v>
       </c>
       <c r="G102" s="5">
-        <v>0</v>
+        <v>7.4496999999999994E-2</v>
       </c>
       <c r="H102" s="5">
-        <v>0.5</v>
+        <v>0.42550300000000002</v>
       </c>
       <c r="I102" s="5">
         <v>1</v>
@@ -6374,10 +6373,10 @@
         <v>0.59375</v>
       </c>
       <c r="G103" s="5">
-        <v>1.5384999999999999E-2</v>
+        <v>1.0034E-2</v>
       </c>
       <c r="H103" s="5">
-        <v>0</v>
+        <v>5.3509999999999999E-3</v>
       </c>
       <c r="I103" s="5">
         <v>0.1</v>
@@ -6430,10 +6429,10 @@
         <v>0.4</v>
       </c>
       <c r="G104" s="5">
-        <v>0</v>
+        <v>2.1137E-2</v>
       </c>
       <c r="H104" s="5">
-        <v>9.0909000000000004E-2</v>
+        <v>6.9772000000000001E-2</v>
       </c>
       <c r="I104" s="5">
         <v>0.1</v>
@@ -6486,10 +6485,10 @@
         <v>0.54545500000000002</v>
       </c>
       <c r="G105" s="5">
-        <v>0</v>
+        <v>1.1103999999999999E-2</v>
       </c>
       <c r="H105" s="5">
-        <v>4.3478000000000003E-2</v>
+        <v>3.2374E-2</v>
       </c>
       <c r="I105" s="5">
         <v>0.1</v>
@@ -6542,10 +6541,10 @@
         <v>0.81818199999999996</v>
       </c>
       <c r="G106" s="5">
-        <v>0.16666700000000001</v>
+        <v>0.159834</v>
       </c>
       <c r="H106" s="5">
-        <v>8.3333000000000004E-2</v>
+        <v>7.6501E-2</v>
       </c>
       <c r="I106" s="5">
         <v>0.1</v>
@@ -6598,10 +6597,10 @@
         <v>0.584615</v>
       </c>
       <c r="G107" s="5">
-        <v>0</v>
+        <v>9.4300000000000004E-4</v>
       </c>
       <c r="H107" s="5">
-        <v>1.5152000000000001E-2</v>
+        <v>1.4208999999999999E-2</v>
       </c>
       <c r="I107" s="5">
         <v>0.1</v>
@@ -6654,10 +6653,10 @@
         <v>0.53333299999999995</v>
       </c>
       <c r="G108" s="5">
-        <v>0</v>
+        <v>6.0629999999999998E-3</v>
       </c>
       <c r="H108" s="5">
-        <v>6.25E-2</v>
+        <v>5.6437000000000001E-2</v>
       </c>
       <c r="I108" s="5">
         <v>0.1</v>
@@ -6710,10 +6709,10 @@
         <v>0.43181799999999998</v>
       </c>
       <c r="G109" s="5">
-        <v>2.2221999999999999E-2</v>
+        <v>2.0632000000000001E-2</v>
       </c>
       <c r="H109" s="5">
-        <v>0</v>
+        <v>1.5900000000000001E-3</v>
       </c>
       <c r="I109" s="5">
         <v>0.1</v>
@@ -6766,10 +6765,10 @@
         <v>0.47058800000000001</v>
       </c>
       <c r="G110" s="5">
-        <v>0</v>
+        <v>2.7314999999999999E-2</v>
       </c>
       <c r="H110" s="5">
-        <v>5.5556000000000001E-2</v>
+        <v>8.2871E-2</v>
       </c>
       <c r="I110" s="5">
         <v>0.1</v>
@@ -6822,10 +6821,10 @@
         <v>0.40909099999999998</v>
       </c>
       <c r="G111" s="5">
-        <v>8.6957000000000007E-2</v>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="H111" s="5">
-        <v>0.130435</v>
+        <v>0.11627899999999999</v>
       </c>
       <c r="I111" s="5">
         <v>0.1</v>
@@ -6878,10 +6877,10 @@
         <v>0.25</v>
       </c>
       <c r="G112" s="5">
-        <v>0</v>
+        <v>5.2958999999999999E-2</v>
       </c>
       <c r="H112" s="5">
-        <v>0.111111</v>
+        <v>0.16406999999999999</v>
       </c>
       <c r="I112" s="5">
         <v>0.125</v>
@@ -6934,10 +6933,10 @@
         <v>0.36363600000000001</v>
       </c>
       <c r="G113" s="5">
-        <v>0</v>
+        <v>4.1397000000000003E-2</v>
       </c>
       <c r="H113" s="5">
-        <v>8.3333000000000004E-2</v>
+        <v>0.12472999999999999</v>
       </c>
       <c r="I113" s="5">
         <v>0.1</v>
@@ -6990,10 +6989,10 @@
         <v>0.4</v>
       </c>
       <c r="G114" s="5">
-        <v>4.7619000000000002E-2</v>
+        <v>5.1139999999999998E-2</v>
       </c>
       <c r="H114" s="5">
-        <v>9.5238000000000003E-2</v>
+        <v>9.8759E-2</v>
       </c>
       <c r="I114" s="5">
         <v>0.1</v>
@@ -7046,10 +7045,10 @@
         <v>0.484848</v>
       </c>
       <c r="G115" s="5">
-        <v>2.9412000000000001E-2</v>
+        <v>2.9541000000000001E-2</v>
       </c>
       <c r="H115" s="5">
-        <v>0</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="I115" s="5">
         <v>0.1</v>
@@ -7102,10 +7101,10 @@
         <v>0.67647100000000004</v>
       </c>
       <c r="G116" s="5">
-        <v>0</v>
+        <v>1.93E-4</v>
       </c>
       <c r="H116" s="5">
-        <v>2.8570999999999999E-2</v>
+        <v>2.8378E-2</v>
       </c>
       <c r="I116" s="5">
         <v>0.1</v>
@@ -7158,10 +7157,10 @@
         <v>0.59090900000000002</v>
       </c>
       <c r="G117" s="5">
-        <v>0</v>
+        <v>7.0489999999999997E-3</v>
       </c>
       <c r="H117" s="5">
-        <v>1.4925000000000001E-2</v>
+        <v>7.8770000000000003E-3</v>
       </c>
       <c r="I117" s="5">
         <v>0.1</v>
@@ -7214,10 +7213,10 @@
         <v>0.55555600000000005</v>
       </c>
       <c r="G118" s="5">
-        <v>0</v>
+        <v>3.6750999999999999E-2</v>
       </c>
       <c r="H118" s="5">
-        <v>0.1</v>
+        <v>6.3249E-2</v>
       </c>
       <c r="I118" s="5">
         <v>0.111111</v>
@@ -7270,10 +7269,10 @@
         <v>0.45454499999999998</v>
       </c>
       <c r="G119" s="5">
-        <v>8.3333000000000004E-2</v>
+        <v>4.1904999999999998E-2</v>
       </c>
       <c r="H119" s="5">
-        <v>0</v>
+        <v>4.1428E-2</v>
       </c>
       <c r="I119" s="5">
         <v>0.1</v>
@@ -7326,10 +7325,10 @@
         <v>1</v>
       </c>
       <c r="G120" s="5">
-        <v>0.33333299999999999</v>
+        <v>0.32548700000000003</v>
       </c>
       <c r="H120" s="5">
-        <v>0</v>
+        <v>7.8460000000000005E-3</v>
       </c>
       <c r="I120" s="5">
         <v>0.5</v>
@@ -7382,10 +7381,10 @@
         <v>0.6</v>
       </c>
       <c r="G121" s="5">
-        <v>0.16666700000000001</v>
+        <v>0.151361</v>
       </c>
       <c r="H121" s="5">
-        <v>0</v>
+        <v>1.5304999999999999E-2</v>
       </c>
       <c r="I121" s="5">
         <v>0.2</v>
@@ -7438,10 +7437,10 @@
         <v>0.47058800000000001</v>
       </c>
       <c r="G122" s="5">
-        <v>5.5556000000000001E-2</v>
+        <v>4.9690999999999999E-2</v>
       </c>
       <c r="H122" s="5">
-        <v>0</v>
+        <v>5.8640000000000003E-3</v>
       </c>
       <c r="I122" s="5">
         <v>0.1</v>
@@ -7494,10 +7493,10 @@
         <v>0.42222199999999999</v>
       </c>
       <c r="G123" s="5">
-        <v>2.1739000000000001E-2</v>
+        <v>1.0970000000000001E-2</v>
       </c>
       <c r="H123" s="5">
-        <v>0</v>
+        <v>1.0769000000000001E-2</v>
       </c>
       <c r="I123" s="5">
         <v>0.1</v>
@@ -7550,10 +7549,10 @@
         <v>0.36363600000000001</v>
       </c>
       <c r="G124" s="5">
-        <v>0</v>
+        <v>2.6689999999999998E-2</v>
       </c>
       <c r="H124" s="5">
-        <v>8.3333000000000004E-2</v>
+        <v>5.6642999999999999E-2</v>
       </c>
       <c r="I124" s="5">
         <v>0.1</v>
@@ -7606,10 +7605,10 @@
         <v>0.42857099999999998</v>
       </c>
       <c r="G125" s="5">
-        <v>0</v>
+        <v>2.3730000000000001E-2</v>
       </c>
       <c r="H125" s="5">
-        <v>6.6667000000000004E-2</v>
+        <v>9.0396000000000004E-2</v>
       </c>
       <c r="I125" s="5">
         <v>0.1</v>
@@ -7662,10 +7661,10 @@
         <v>0.58209</v>
       </c>
       <c r="G126" s="5">
-        <v>0</v>
+        <v>1.7309999999999999E-3</v>
       </c>
       <c r="H126" s="5">
-        <v>1.4706E-2</v>
+        <v>1.6437E-2</v>
       </c>
       <c r="I126" s="5">
         <v>0.1</v>
@@ -7718,10 +7717,10 @@
         <v>0.83333299999999999</v>
       </c>
       <c r="G127" s="5">
-        <v>0.14285700000000001</v>
+        <v>0.21393400000000001</v>
       </c>
       <c r="H127" s="5">
-        <v>0</v>
+        <v>7.1077000000000001E-2</v>
       </c>
       <c r="I127" s="5">
         <v>0.16666700000000001</v>
@@ -7774,10 +7773,10 @@
         <v>0.7</v>
       </c>
       <c r="G128" s="5">
-        <v>9.0909000000000004E-2</v>
+        <v>7.2668999999999997E-2</v>
       </c>
       <c r="H128" s="5">
-        <v>0</v>
+        <v>1.8239999999999999E-2</v>
       </c>
       <c r="I128" s="5">
         <v>0.1</v>
@@ -7830,10 +7829,10 @@
         <v>0.47058800000000001</v>
       </c>
       <c r="G129" s="5">
-        <v>2.8570999999999999E-2</v>
+        <v>1.5254999999999999E-2</v>
       </c>
       <c r="H129" s="5">
-        <v>0</v>
+        <v>1.3316E-2</v>
       </c>
       <c r="I129" s="5">
         <v>0.1</v>
@@ -7886,10 +7885,10 @@
         <v>0.56521699999999997</v>
       </c>
       <c r="G130" s="5">
-        <v>4.1667000000000003E-2</v>
+        <v>2.9219999999999999E-2</v>
       </c>
       <c r="H130" s="5">
-        <v>0</v>
+        <v>1.2446E-2</v>
       </c>
       <c r="I130" s="5">
         <v>0.1</v>
@@ -7942,10 +7941,10 @@
         <v>0.25</v>
       </c>
       <c r="G131" s="5">
-        <v>0.111111</v>
+        <v>8.2827999999999999E-2</v>
       </c>
       <c r="H131" s="5">
-        <v>0.222222</v>
+        <v>0.193939</v>
       </c>
       <c r="I131" s="5">
         <v>0.125</v>
@@ -7998,10 +7997,10 @@
         <v>0.68571400000000005</v>
       </c>
       <c r="G132" s="5">
-        <v>0</v>
+        <v>8.9230000000000004E-3</v>
       </c>
       <c r="H132" s="5">
-        <v>2.7778000000000001E-2</v>
+        <v>1.8853999999999999E-2</v>
       </c>
       <c r="I132" s="5">
         <v>0.1</v>
@@ -8054,10 +8053,10 @@
         <v>0.47058800000000001</v>
       </c>
       <c r="G133" s="5">
-        <v>0</v>
+        <v>9.3200000000000002E-3</v>
       </c>
       <c r="H133" s="5">
-        <v>5.5556000000000001E-2</v>
+        <v>6.4876000000000003E-2</v>
       </c>
       <c r="I133" s="5">
         <v>0.1</v>
@@ -8110,10 +8109,10 @@
         <v>0.58823499999999995</v>
       </c>
       <c r="G134" s="5">
-        <v>0</v>
+        <v>4.2370000000000003E-3</v>
       </c>
       <c r="H134" s="5">
-        <v>1.4493000000000001E-2</v>
+        <v>1.0255999999999999E-2</v>
       </c>
       <c r="I134" s="5">
         <v>0.1</v>
@@ -8166,10 +8165,10 @@
         <v>1</v>
       </c>
       <c r="G135" s="5">
-        <v>0.33333299999999999</v>
+        <v>0.38336900000000002</v>
       </c>
       <c r="H135" s="5">
-        <v>0</v>
+        <v>5.0035999999999997E-2</v>
       </c>
       <c r="I135" s="5">
         <v>0.5</v>
@@ -8222,10 +8221,10 @@
         <v>0.4</v>
       </c>
       <c r="G136" s="5">
-        <v>0</v>
+        <v>7.8825000000000006E-2</v>
       </c>
       <c r="H136" s="5">
-        <v>0.16666700000000001</v>
+        <v>8.7841000000000002E-2</v>
       </c>
       <c r="I136" s="5">
         <v>0.2</v>
@@ -8278,10 +8277,10 @@
         <v>0.43478299999999998</v>
       </c>
       <c r="G137" s="5">
-        <v>2.1277000000000001E-2</v>
+        <v>2.2995999999999999E-2</v>
       </c>
       <c r="H137" s="5">
-        <v>0</v>
+        <v>1.719E-3</v>
       </c>
       <c r="I137" s="5">
         <v>0.1</v>
@@ -8334,10 +8333,10 @@
         <v>0.5</v>
       </c>
       <c r="G138" s="5">
-        <v>0</v>
+        <v>3.7899000000000002E-2</v>
       </c>
       <c r="H138" s="5">
-        <v>9.0909000000000004E-2</v>
+        <v>5.3010000000000002E-2</v>
       </c>
       <c r="I138" s="5">
         <v>0.1</v>
@@ -8390,10 +8389,10 @@
         <v>0.43478299999999998</v>
       </c>
       <c r="G139" s="5">
-        <v>4.1667000000000003E-2</v>
+        <v>4.9250000000000002E-2</v>
       </c>
       <c r="H139" s="5">
-        <v>8.3333000000000004E-2</v>
+        <v>9.0915999999999997E-2</v>
       </c>
       <c r="I139" s="5">
         <v>0.1</v>
@@ -8446,10 +8445,10 @@
         <v>0.5</v>
       </c>
       <c r="G140" s="5">
-        <v>0</v>
+        <v>5.9769999999999997E-3</v>
       </c>
       <c r="H140" s="5">
-        <v>7.6923000000000005E-2</v>
+        <v>8.2900000000000001E-2</v>
       </c>
       <c r="I140" s="5">
         <v>0.1</v>
@@ -8502,10 +8501,10 @@
         <v>1</v>
       </c>
       <c r="G141" s="5">
-        <v>0.33333299999999999</v>
+        <v>0.47755799999999998</v>
       </c>
       <c r="H141" s="5">
-        <v>0</v>
+        <v>0.14422499999999999</v>
       </c>
       <c r="I141" s="5">
         <v>0.5</v>
@@ -8558,10 +8557,10 @@
         <v>0.42857099999999998</v>
       </c>
       <c r="G142" s="5">
-        <v>4.5455000000000002E-2</v>
+        <v>2.5166000000000001E-2</v>
       </c>
       <c r="H142" s="5">
-        <v>9.0909000000000004E-2</v>
+        <v>7.0621000000000003E-2</v>
       </c>
       <c r="I142" s="5">
         <v>0.1</v>
@@ -8614,10 +8613,10 @@
         <v>0.59420300000000004</v>
       </c>
       <c r="G143" s="5">
-        <v>1.4286E-2</v>
+        <v>1.0034E-2</v>
       </c>
       <c r="H143" s="5">
-        <v>0</v>
+        <v>4.2519999999999997E-3</v>
       </c>
       <c r="I143" s="5">
         <v>0.1</v>
@@ -8670,10 +8669,10 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="G144" s="5">
-        <v>0</v>
+        <v>9.9127999999999994E-2</v>
       </c>
       <c r="H144" s="5">
-        <v>0.25</v>
+        <v>0.15087200000000001</v>
       </c>
       <c r="I144" s="5">
         <v>0.33333299999999999</v>
@@ -8726,10 +8725,10 @@
         <v>0.375</v>
       </c>
       <c r="G145" s="5">
-        <v>0.111111</v>
+        <v>8.9871000000000006E-2</v>
       </c>
       <c r="H145" s="5">
-        <v>0</v>
+        <v>2.1239999999999998E-2</v>
       </c>
       <c r="I145" s="5">
         <v>0.125</v>
@@ -8782,10 +8781,10 @@
         <v>0.5</v>
       </c>
       <c r="G146" s="5">
-        <v>0</v>
+        <v>9.990000000000001E-4</v>
       </c>
       <c r="H146" s="5">
-        <v>5.2631999999999998E-2</v>
+        <v>5.3630999999999998E-2</v>
       </c>
       <c r="I146" s="5">
         <v>0.1</v>
@@ -8838,10 +8837,10 @@
         <v>0.2</v>
       </c>
       <c r="G147" s="5">
-        <v>0</v>
+        <v>4.2969E-2</v>
       </c>
       <c r="H147" s="5">
-        <v>0.16666700000000001</v>
+        <v>0.20963499999999999</v>
       </c>
       <c r="I147" s="5">
         <v>0.2</v>
@@ -8894,10 +8893,10 @@
         <v>0.5625</v>
       </c>
       <c r="G148" s="5">
-        <v>5.8824000000000001E-2</v>
+        <v>3.1798E-2</v>
       </c>
       <c r="H148" s="5">
-        <v>0</v>
+        <v>2.7025E-2</v>
       </c>
       <c r="I148" s="5">
         <v>0.1</v>
@@ -8950,10 +8949,10 @@
         <v>0.45714300000000002</v>
       </c>
       <c r="G149" s="5">
-        <v>0</v>
+        <v>1.763E-3</v>
       </c>
       <c r="H149" s="5">
-        <v>2.7778000000000001E-2</v>
+        <v>2.6013999999999999E-2</v>
       </c>
       <c r="I149" s="5">
         <v>0.1</v>
@@ -9006,10 +9005,10 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="G150" s="5">
-        <v>0</v>
+        <v>9.8449999999999996E-3</v>
       </c>
       <c r="H150" s="5">
-        <v>2.7026999999999999E-2</v>
+        <v>3.6872000000000002E-2</v>
       </c>
       <c r="I150" s="5">
         <v>0.1</v>
@@ -9062,10 +9061,10 @@
         <v>0.42553200000000002</v>
       </c>
       <c r="G151" s="5">
-        <v>2.0833000000000001E-2</v>
+        <v>1.3687E-2</v>
       </c>
       <c r="H151" s="5">
-        <v>0</v>
+        <v>7.1459999999999996E-3</v>
       </c>
       <c r="I151" s="5">
         <v>0.1</v>
@@ -9118,10 +9117,10 @@
         <v>0.44444400000000001</v>
       </c>
       <c r="G152" s="5">
-        <v>0</v>
+        <v>1.356E-3</v>
       </c>
       <c r="H152" s="5">
-        <v>0.1</v>
+        <v>9.8643999999999996E-2</v>
       </c>
       <c r="I152" s="5">
         <v>0.111111</v>
@@ -9174,10 +9173,10 @@
         <v>0.58571399999999996</v>
       </c>
       <c r="G153" s="5">
-        <v>0</v>
+        <v>1.583E-3</v>
       </c>
       <c r="H153" s="5">
-        <v>1.4085E-2</v>
+        <v>1.2501E-2</v>
       </c>
       <c r="I153" s="5">
         <v>0.1</v>
@@ -9230,10 +9229,10 @@
         <v>0</v>
       </c>
       <c r="G154" s="5">
-        <v>0</v>
+        <v>0.107584</v>
       </c>
       <c r="H154" s="5">
-        <v>0.25</v>
+        <v>0.35758400000000001</v>
       </c>
       <c r="I154" s="5">
         <v>0.33333299999999999</v>
@@ -9286,10 +9285,10 @@
         <v>0.44444400000000001</v>
       </c>
       <c r="G155" s="5">
-        <v>0</v>
+        <v>2.3376000000000001E-2</v>
       </c>
       <c r="H155" s="5">
-        <v>5.2631999999999998E-2</v>
+        <v>2.9256000000000001E-2</v>
       </c>
       <c r="I155" s="5">
         <v>0.1</v>
@@ -9342,10 +9341,10 @@
         <v>0.75</v>
       </c>
       <c r="G156" s="5">
-        <v>7.6923000000000005E-2</v>
+        <v>9.5731999999999998E-2</v>
       </c>
       <c r="H156" s="5">
-        <v>0</v>
+        <v>1.8808999999999999E-2</v>
       </c>
       <c r="I156" s="5">
         <v>0.1</v>
@@ -9398,10 +9397,10 @@
         <v>0.54166700000000001</v>
       </c>
       <c r="G157" s="5">
-        <v>0</v>
+        <v>5.8869999999999999E-3</v>
       </c>
       <c r="H157" s="5">
-        <v>0.04</v>
+        <v>3.4112999999999997E-2</v>
       </c>
       <c r="I157" s="5">
         <v>0.1</v>
@@ -9454,10 +9453,10 @@
         <v>0.45454499999999998</v>
       </c>
       <c r="G158" s="5">
-        <v>8.3333000000000004E-2</v>
+        <v>6.6591999999999998E-2</v>
       </c>
       <c r="H158" s="5">
-        <v>0</v>
+        <v>1.6742E-2</v>
       </c>
       <c r="I158" s="5">
         <v>0.1</v>
@@ -9510,10 +9509,10 @@
         <v>0.2</v>
       </c>
       <c r="G159" s="5">
-        <v>0</v>
+        <v>4.9189999999999998E-3</v>
       </c>
       <c r="H159" s="5">
-        <v>0.16666700000000001</v>
+        <v>0.17158599999999999</v>
       </c>
       <c r="I159" s="5">
         <v>0.2</v>
@@ -9566,10 +9565,10 @@
         <v>0.59154899999999999</v>
       </c>
       <c r="G160" s="5">
-        <v>1.3889E-2</v>
+        <v>7.2560000000000003E-3</v>
       </c>
       <c r="H160" s="5">
-        <v>0</v>
+        <v>6.633E-3</v>
       </c>
       <c r="I160" s="5">
         <v>0.1</v>
@@ -9622,10 +9621,10 @@
         <v>0.41666700000000001</v>
       </c>
       <c r="G161" s="5">
-        <v>0</v>
+        <v>4.7590000000000002E-3</v>
       </c>
       <c r="H161" s="5">
-        <v>2.0407999999999999E-2</v>
+        <v>1.5649E-2</v>
       </c>
       <c r="I161" s="5">
         <v>0.1</v>
@@ -9678,10 +9677,10 @@
         <v>0.41666700000000001</v>
       </c>
       <c r="G162" s="5">
-        <v>0</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="H162" s="5">
-        <v>7.6923000000000005E-2</v>
+        <v>7.3447999999999999E-2</v>
       </c>
       <c r="I162" s="5">
         <v>0.1</v>
@@ -9734,10 +9733,10 @@
         <v>0.45833299999999999</v>
       </c>
       <c r="G163" s="5">
-        <v>0.04</v>
+        <v>2.7583E-2</v>
       </c>
       <c r="H163" s="5">
-        <v>0.08</v>
+        <v>6.7583000000000004E-2</v>
       </c>
       <c r="I163" s="5">
         <v>0.1</v>
@@ -9790,10 +9789,10 @@
         <v>0.466667</v>
       </c>
       <c r="G164" s="5">
-        <v>0</v>
+        <v>9.6039999999999997E-3</v>
       </c>
       <c r="H164" s="5">
-        <v>6.25E-2</v>
+        <v>5.2895999999999999E-2</v>
       </c>
       <c r="I164" s="5">
         <v>0.1</v>
@@ -9846,10 +9845,10 @@
         <v>0.67567600000000005</v>
       </c>
       <c r="G165" s="5">
-        <v>0</v>
+        <v>1.31E-3</v>
       </c>
       <c r="H165" s="5">
-        <v>2.6315999999999999E-2</v>
+        <v>2.7626000000000001E-2</v>
       </c>
       <c r="I165" s="5">
         <v>0.1</v>
@@ -9902,10 +9901,10 @@
         <v>0.47222199999999998</v>
       </c>
       <c r="G166" s="5">
-        <v>2.7026999999999999E-2</v>
+        <v>1.6028000000000001E-2</v>
       </c>
       <c r="H166" s="5">
-        <v>0</v>
+        <v>1.0999E-2</v>
       </c>
       <c r="I166" s="5">
         <v>0.1</v>
@@ -9958,10 +9957,10 @@
         <v>0.5</v>
       </c>
       <c r="G167" s="5">
-        <v>0</v>
+        <v>1.6995E-2</v>
       </c>
       <c r="H167" s="5">
-        <v>5.2631999999999998E-2</v>
+        <v>3.5636000000000001E-2</v>
       </c>
       <c r="I167" s="5">
         <v>0.1</v>
@@ -10014,10 +10013,10 @@
         <v>0.58333299999999999</v>
       </c>
       <c r="G168" s="5">
-        <v>0</v>
+        <v>9.2500000000000004E-4</v>
       </c>
       <c r="H168" s="5">
-        <v>1.3698999999999999E-2</v>
+        <v>1.4624E-2</v>
       </c>
       <c r="I168" s="5">
         <v>0.1</v>
